--- a/Summaries/SP1/Ath Bilbao_Sociedad_adv.xlsx
+++ b/Summaries/SP1/Ath Bilbao_Sociedad_adv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="378">
   <si>
     <t>Div</t>
   </si>
@@ -502,165 +502,165 @@
     <t>Aer%</t>
   </si>
   <si>
-    <t>1600</t>
-  </si>
-  <si>
-    <t>1684</t>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1695</t>
   </si>
   <si>
     <t>110</t>
   </si>
   <si>
+    <t>980</t>
+  </si>
+  <si>
+    <t>1363</t>
+  </si>
+  <si>
+    <t>2260</t>
+  </si>
+  <si>
     <t>80</t>
   </si>
   <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>905</t>
+  </si>
+  <si>
+    <t>1597</t>
+  </si>
+  <si>
+    <t>2099</t>
+  </si>
+  <si>
+    <t>2261</t>
+  </si>
+  <si>
     <t>240</t>
   </si>
   <si>
-    <t>900</t>
-  </si>
-  <si>
-    <t>975</t>
-  </si>
-  <si>
-    <t>1354</t>
-  </si>
-  <si>
-    <t>1586</t>
+    <t>742</t>
+  </si>
+  <si>
+    <t>801</t>
+  </si>
+  <si>
+    <t>807</t>
+  </si>
+  <si>
+    <t>1162</t>
+  </si>
+  <si>
+    <t>1310</t>
+  </si>
+  <si>
+    <t>1527</t>
+  </si>
+  <si>
+    <t>1841</t>
+  </si>
+  <si>
+    <t>2146</t>
+  </si>
+  <si>
+    <t>2161</t>
+  </si>
+  <si>
+    <t>2200</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>804</t>
+  </si>
+  <si>
+    <t>1118</t>
+  </si>
+  <si>
+    <t>1297</t>
+  </si>
+  <si>
+    <t>1450</t>
+  </si>
+  <si>
+    <t>1544</t>
+  </si>
+  <si>
+    <t>1594</t>
+  </si>
+  <si>
+    <t>1814</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>580</t>
+  </si>
+  <si>
+    <t>859</t>
+  </si>
+  <si>
+    <t>1280</t>
+  </si>
+  <si>
+    <t>1599</t>
+  </si>
+  <si>
+    <t>1900</t>
+  </si>
+  <si>
+    <t>2198</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>1202</t>
+  </si>
+  <si>
+    <t>1246</t>
+  </si>
+  <si>
+    <t>1286</t>
+  </si>
+  <si>
+    <t>1554</t>
+  </si>
+  <si>
+    <t>1737</t>
+  </si>
+  <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>1996</t>
   </si>
   <si>
     <t>2084</t>
   </si>
   <si>
-    <t>2245</t>
-  </si>
-  <si>
-    <t>2246</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>738</t>
-  </si>
-  <si>
-    <t>796</t>
-  </si>
-  <si>
-    <t>802</t>
-  </si>
-  <si>
-    <t>1156</t>
-  </si>
-  <si>
-    <t>1517</t>
-  </si>
-  <si>
-    <t>1829</t>
-  </si>
-  <si>
-    <t>2146</t>
-  </si>
-  <si>
-    <t>2185</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>795</t>
-  </si>
-  <si>
-    <t>799</t>
-  </si>
-  <si>
-    <t>1112</t>
-  </si>
-  <si>
-    <t>1289</t>
-  </si>
-  <si>
-    <t>1440</t>
-  </si>
-  <si>
-    <t>1533</t>
-  </si>
-  <si>
-    <t>1583</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>356</t>
-  </si>
-  <si>
-    <t>577</t>
-  </si>
-  <si>
-    <t>854</t>
-  </si>
-  <si>
-    <t>1272</t>
-  </si>
-  <si>
-    <t>1302</t>
-  </si>
-  <si>
-    <t>1588</t>
-  </si>
-  <si>
-    <t>1888</t>
-  </si>
-  <si>
-    <t>2131</t>
-  </si>
-  <si>
-    <t>2183</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>646</t>
-  </si>
-  <si>
-    <t>1195</t>
-  </si>
-  <si>
-    <t>1238</t>
-  </si>
-  <si>
-    <t>1278</t>
-  </si>
-  <si>
-    <t>1543</t>
-  </si>
-  <si>
-    <t>1726</t>
-  </si>
-  <si>
-    <t>1965</t>
-  </si>
-  <si>
-    <t>1982</t>
-  </si>
-  <si>
-    <t>2069</t>
-  </si>
-  <si>
     <t>Aitor Paredes</t>
   </si>
   <si>
@@ -670,6 +670,15 @@
     <t>Jon Aramburu</t>
   </si>
   <si>
+    <t>Mikel Jauregizar</t>
+  </si>
+  <si>
+    <t>Brais Méndez</t>
+  </si>
+  <si>
+    <t>Igor Zubeldia</t>
+  </si>
+  <si>
     <t>Yeray Álvarez</t>
   </si>
   <si>
@@ -679,21 +688,12 @@
     <t>Ander Herrera</t>
   </si>
   <si>
-    <t>Mikel Jauregizar</t>
-  </si>
-  <si>
-    <t>Brais Méndez</t>
-  </si>
-  <si>
     <t>Jon Pacheco</t>
   </si>
   <si>
     <t>Beñat Turrientes</t>
   </si>
   <si>
-    <t>Igor Zubeldia</t>
-  </si>
-  <si>
     <t>Martín Zubimendi</t>
   </si>
   <si>
@@ -712,12 +712,18 @@
     <t>Iñigo Lekue</t>
   </si>
   <si>
+    <t>Javi Martón</t>
+  </si>
+  <si>
     <t>Unai Núñez</t>
   </si>
   <si>
     <t>Oihan Sancet</t>
   </si>
   <si>
+    <t>Mikel Vesga</t>
+  </si>
+  <si>
     <t>Daniel Vivian</t>
   </si>
   <si>
@@ -775,18 +781,12 @@
     <t>Óscar de Marcos</t>
   </si>
   <si>
-    <t>Javi Martón</t>
-  </si>
-  <si>
     <t>Alex Padilla</t>
   </si>
   <si>
     <t>Nicolás Serrano</t>
   </si>
   <si>
-    <t>Mikel Vesga</t>
-  </si>
-  <si>
     <t>Iñaki Williams</t>
   </si>
   <si>
@@ -874,163 +874,163 @@
     <t>es La Liga</t>
   </si>
   <si>
-    <t>24-194</t>
-  </si>
-  <si>
-    <t>23-275</t>
-  </si>
-  <si>
-    <t>22-109</t>
-  </si>
-  <si>
-    <t>29-290</t>
-  </si>
-  <si>
-    <t>29-128</t>
-  </si>
-  <si>
-    <t>35-087</t>
-  </si>
-  <si>
-    <t>20-363</t>
-  </si>
-  <si>
-    <t>27-307</t>
-  </si>
-  <si>
-    <t>23-306</t>
-  </si>
-  <si>
-    <t>22-283</t>
-  </si>
-  <si>
-    <t>27-224</t>
-  </si>
-  <si>
-    <t>25-281</t>
-  </si>
-  <si>
-    <t>34-273</t>
-  </si>
-  <si>
-    <t>31-095</t>
-  </si>
-  <si>
-    <t>21-168</t>
-  </si>
-  <si>
-    <t>28-097</t>
-  </si>
-  <si>
-    <t>31-189</t>
-  </si>
-  <si>
-    <t>27-284</t>
-  </si>
-  <si>
-    <t>24-198</t>
-  </si>
-  <si>
-    <t>25-117</t>
-  </si>
-  <si>
-    <t>22-120</t>
-  </si>
-  <si>
-    <t>28-224</t>
-  </si>
-  <si>
-    <t>22-318</t>
-  </si>
-  <si>
-    <t>24-066</t>
-  </si>
-  <si>
-    <t>23-234</t>
-  </si>
-  <si>
-    <t>23-158</t>
-  </si>
-  <si>
-    <t>18-313</t>
-  </si>
-  <si>
-    <t>27-085</t>
-  </si>
-  <si>
-    <t>28-331</t>
-  </si>
-  <si>
-    <t>27-202</t>
-  </si>
-  <si>
-    <t>27-281</t>
-  </si>
-  <si>
-    <t>23-319</t>
-  </si>
-  <si>
-    <t>23-028</t>
-  </si>
-  <si>
-    <t>22-140</t>
-  </si>
-  <si>
-    <t>19-297</t>
-  </si>
-  <si>
-    <t>25-085</t>
-  </si>
-  <si>
-    <t>28-058</t>
-  </si>
-  <si>
-    <t>35-209</t>
-  </si>
-  <si>
-    <t>25-187</t>
-  </si>
-  <si>
-    <t>21-069</t>
-  </si>
-  <si>
-    <t>21-249</t>
-  </si>
-  <si>
-    <t>31-172</t>
-  </si>
-  <si>
-    <t>30-147</t>
-  </si>
-  <si>
-    <t>29-274</t>
-  </si>
-  <si>
-    <t>30-226</t>
-  </si>
-  <si>
-    <t>22-229</t>
-  </si>
-  <si>
-    <t>24-119</t>
-  </si>
-  <si>
-    <t>21-129</t>
-  </si>
-  <si>
-    <t>24-085</t>
-  </si>
-  <si>
-    <t>29-230</t>
-  </si>
-  <si>
-    <t>20-072</t>
-  </si>
-  <si>
-    <t>22-062</t>
-  </si>
-  <si>
-    <t>32-287</t>
+    <t>24-201</t>
+  </si>
+  <si>
+    <t>23-282</t>
+  </si>
+  <si>
+    <t>22-116</t>
+  </si>
+  <si>
+    <t>21-004</t>
+  </si>
+  <si>
+    <t>27-314</t>
+  </si>
+  <si>
+    <t>27-231</t>
+  </si>
+  <si>
+    <t>29-297</t>
+  </si>
+  <si>
+    <t>29-135</t>
+  </si>
+  <si>
+    <t>35-094</t>
+  </si>
+  <si>
+    <t>23-313</t>
+  </si>
+  <si>
+    <t>22-290</t>
+  </si>
+  <si>
+    <t>25-288</t>
+  </si>
+  <si>
+    <t>34-280</t>
+  </si>
+  <si>
+    <t>31-102</t>
+  </si>
+  <si>
+    <t>21-175</t>
+  </si>
+  <si>
+    <t>28-104</t>
+  </si>
+  <si>
+    <t>31-196</t>
+  </si>
+  <si>
+    <t>25-194</t>
+  </si>
+  <si>
+    <t>27-291</t>
+  </si>
+  <si>
+    <t>24-205</t>
+  </si>
+  <si>
+    <t>31-179</t>
+  </si>
+  <si>
+    <t>25-124</t>
+  </si>
+  <si>
+    <t>22-127</t>
+  </si>
+  <si>
+    <t>28-231</t>
+  </si>
+  <si>
+    <t>22-325</t>
+  </si>
+  <si>
+    <t>24-073</t>
+  </si>
+  <si>
+    <t>23-241</t>
+  </si>
+  <si>
+    <t>23-165</t>
+  </si>
+  <si>
+    <t>18-320</t>
+  </si>
+  <si>
+    <t>27-092</t>
+  </si>
+  <si>
+    <t>28-338</t>
+  </si>
+  <si>
+    <t>27-209</t>
+  </si>
+  <si>
+    <t>27-288</t>
+  </si>
+  <si>
+    <t>23-326</t>
+  </si>
+  <si>
+    <t>23-035</t>
+  </si>
+  <si>
+    <t>22-147</t>
+  </si>
+  <si>
+    <t>19-304</t>
+  </si>
+  <si>
+    <t>25-092</t>
+  </si>
+  <si>
+    <t>28-065</t>
+  </si>
+  <si>
+    <t>35-216</t>
+  </si>
+  <si>
+    <t>21-076</t>
+  </si>
+  <si>
+    <t>21-256</t>
+  </si>
+  <si>
+    <t>30-154</t>
+  </si>
+  <si>
+    <t>29-281</t>
+  </si>
+  <si>
+    <t>30-233</t>
+  </si>
+  <si>
+    <t>22-236</t>
+  </si>
+  <si>
+    <t>24-126</t>
+  </si>
+  <si>
+    <t>21-136</t>
+  </si>
+  <si>
+    <t>24-092</t>
+  </si>
+  <si>
+    <t>29-237</t>
+  </si>
+  <si>
+    <t>20-079</t>
+  </si>
+  <si>
+    <t>22-069</t>
+  </si>
+  <si>
+    <t>32-294</t>
   </si>
   <si>
     <t>2000</t>
@@ -1042,18 +1042,18 @@
     <t>2002</t>
   </si>
   <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
     <t>1995</t>
   </si>
   <si>
     <t>1989</t>
   </si>
   <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
     <t>1999</t>
   </si>
   <si>
@@ -1061,9 +1061,6 @@
   </si>
   <si>
     <t>1993</t>
-  </si>
-  <si>
-    <t>1996</t>
   </si>
   <si>
     <t>2006</t>
@@ -3839,7 +3836,7 @@
         <v>162</v>
       </c>
       <c r="B2" t="n">
-        <v>1623.0</v>
+        <v>1634.0</v>
       </c>
       <c r="C2" t="s">
         <v>215</v>
@@ -3863,7 +3860,7 @@
         <v>339</v>
       </c>
       <c r="J2" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="K2" t="n">
         <v>4.0</v>
@@ -3875,7 +3872,7 @@
         <v>1.0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="O2" t="n">
         <v>2.0</v>
@@ -3887,7 +3884,7 @@
         <v>0.0</v>
       </c>
       <c r="R2" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="S2" t="n">
         <v>3.0</v>
@@ -3902,16 +3899,16 @@
         <v>0.0</v>
       </c>
       <c r="W2" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="X2" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z2" t="n">
-        <v>52.6</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="3">
@@ -3919,7 +3916,7 @@
         <v>163</v>
       </c>
       <c r="B3" t="n">
-        <v>1707.0</v>
+        <v>1718.0</v>
       </c>
       <c r="C3" t="s">
         <v>216</v>
@@ -3943,10 +3940,10 @@
         <v>340</v>
       </c>
       <c r="J3" t="n">
-        <v>6.0</v>
+        <v>6.5</v>
       </c>
       <c r="K3" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L3" t="n">
         <v>0.0</v>
@@ -3955,7 +3952,7 @@
         <v>0.0</v>
       </c>
       <c r="N3" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="O3" t="n">
         <v>7.0</v>
@@ -3964,7 +3961,7 @@
         <v>0.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="R3" t="n">
         <v>14.0</v>
@@ -3985,13 +3982,13 @@
         <v>29.0</v>
       </c>
       <c r="X3" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="Z3" t="n">
-        <v>58.3</v>
+        <v>64.7</v>
       </c>
     </row>
     <row r="4">
@@ -4023,10 +4020,10 @@
         <v>341</v>
       </c>
       <c r="J4" t="n">
-        <v>7.7</v>
+        <v>8.4</v>
       </c>
       <c r="K4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L4" t="n">
         <v>0.0</v>
@@ -4035,19 +4032,19 @@
         <v>0.0</v>
       </c>
       <c r="N4" t="n">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="O4" t="n">
         <v>5.0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q4" t="n">
         <v>14.0</v>
       </c>
       <c r="R4" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="S4" t="n">
         <v>25.0</v>
@@ -4062,7 +4059,7 @@
         <v>0.0</v>
       </c>
       <c r="W4" t="n">
-        <v>33.0</v>
+        <v>39.0</v>
       </c>
       <c r="X4" t="n">
         <v>13.0</v>
@@ -4079,7 +4076,7 @@
         <v>165</v>
       </c>
       <c r="B5" t="n">
-        <v>81.0</v>
+        <v>998.0</v>
       </c>
       <c r="C5" t="s">
         <v>218</v>
@@ -4088,7 +4085,7 @@
         <v>268</v>
       </c>
       <c r="E5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F5" t="s">
         <v>94</v>
@@ -4103,55 +4100,55 @@
         <v>342</v>
       </c>
       <c r="J5" t="n">
-        <v>5.0</v>
+        <v>6.8</v>
       </c>
       <c r="K5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M5" t="n">
         <v>0.0</v>
       </c>
       <c r="N5" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="O5" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="X5" t="n">
         <v>6.0</v>
       </c>
-      <c r="P5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>9.0</v>
-      </c>
       <c r="Y5" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="Z5" t="n">
-        <v>50.0</v>
+        <v>35.3</v>
       </c>
     </row>
     <row r="6">
@@ -4159,7 +4156,7 @@
         <v>166</v>
       </c>
       <c r="B6" t="n">
-        <v>245.0</v>
+        <v>1383.0</v>
       </c>
       <c r="C6" t="s">
         <v>219</v>
@@ -4168,10 +4165,10 @@
         <v>268</v>
       </c>
       <c r="E6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G6" t="s">
         <v>285</v>
@@ -4180,58 +4177,58 @@
         <v>290</v>
       </c>
       <c r="I6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="J6" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="K6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="R6" t="n">
         <v>2.0</v>
       </c>
-      <c r="L6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="S6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>9.0</v>
       </c>
-      <c r="P6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>13.0</v>
-      </c>
       <c r="Z6" t="n">
-        <v>31.6</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="7">
@@ -4239,7 +4236,7 @@
         <v>167</v>
       </c>
       <c r="B7" t="n">
-        <v>918.0</v>
+        <v>2290.0</v>
       </c>
       <c r="C7" t="s">
         <v>220</v>
@@ -4248,10 +4245,10 @@
         <v>268</v>
       </c>
       <c r="E7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
         <v>285</v>
@@ -4263,10 +4260,10 @@
         <v>343</v>
       </c>
       <c r="J7" t="n">
-        <v>2.9</v>
+        <v>10.4</v>
       </c>
       <c r="K7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L7" t="n">
         <v>0.0</v>
@@ -4275,43 +4272,43 @@
         <v>0.0</v>
       </c>
       <c r="N7" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="O7" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="P7" t="n">
         <v>0.0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R7" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="S7" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="T7" t="n">
         <v>0.0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V7" t="n">
         <v>0.0</v>
       </c>
       <c r="W7" t="n">
-        <v>14.0</v>
+        <v>32.0</v>
       </c>
       <c r="X7" t="n">
-        <v>3.0</v>
+        <v>27.0</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.0</v>
+        <v>35.0</v>
       </c>
       <c r="Z7" t="n">
-        <v>60.0</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="8">
@@ -4319,7 +4316,7 @@
         <v>168</v>
       </c>
       <c r="B8" t="n">
-        <v>993.0</v>
+        <v>81.0</v>
       </c>
       <c r="C8" t="s">
         <v>221</v>
@@ -4328,7 +4325,7 @@
         <v>268</v>
       </c>
       <c r="E8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F8" t="s">
         <v>94</v>
@@ -4343,19 +4340,19 @@
         <v>344</v>
       </c>
       <c r="J8" t="n">
-        <v>6.3</v>
+        <v>6.0</v>
       </c>
       <c r="K8" t="n">
         <v>2.0</v>
       </c>
       <c r="L8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M8" t="n">
         <v>0.0</v>
       </c>
       <c r="N8" t="n">
-        <v>18.0</v>
+        <v>6.0</v>
       </c>
       <c r="O8" t="n">
         <v>9.0</v>
@@ -4364,34 +4361,34 @@
         <v>0.0</v>
       </c>
       <c r="Q8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>12.0</v>
       </c>
-      <c r="R8" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>11.0</v>
-      </c>
       <c r="Z8" t="n">
-        <v>35.3</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="9">
@@ -4399,7 +4396,7 @@
         <v>169</v>
       </c>
       <c r="B9" t="n">
-        <v>1374.0</v>
+        <v>246.0</v>
       </c>
       <c r="C9" t="s">
         <v>222</v>
@@ -4408,10 +4405,10 @@
         <v>268</v>
       </c>
       <c r="E9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
         <v>285</v>
@@ -4420,10 +4417,10 @@
         <v>293</v>
       </c>
       <c r="I9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J9" t="n">
-        <v>6.3</v>
+        <v>7.8</v>
       </c>
       <c r="K9" t="n">
         <v>2.0</v>
@@ -4435,43 +4432,43 @@
         <v>0.0</v>
       </c>
       <c r="N9" t="n">
-        <v>15.0</v>
+        <v>8.0</v>
       </c>
       <c r="O9" t="n">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
       <c r="P9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S9" t="n">
         <v>3.0</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="T9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="X9" t="n">
         <v>9.0</v>
       </c>
-      <c r="R9" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>2.0</v>
-      </c>
       <c r="Y9" t="n">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
       <c r="Z9" t="n">
-        <v>18.2</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="10">
@@ -4479,7 +4476,7 @@
         <v>170</v>
       </c>
       <c r="B10" t="n">
-        <v>1609.0</v>
+        <v>923.0</v>
       </c>
       <c r="C10" t="s">
         <v>223</v>
@@ -4488,10 +4485,10 @@
         <v>268</v>
       </c>
       <c r="E10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G10" t="s">
         <v>285</v>
@@ -4500,10 +4497,10 @@
         <v>294</v>
       </c>
       <c r="I10" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="J10" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="K10" t="n">
         <v>2.0</v>
@@ -4515,7 +4512,7 @@
         <v>0.0</v>
       </c>
       <c r="N10" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="O10" t="n">
         <v>3.0</v>
@@ -4524,34 +4521,34 @@
         <v>0.0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="X10" t="n">
         <v>3.0</v>
       </c>
-      <c r="S10" t="n">
+      <c r="Y10" t="n">
         <v>2.0</v>
       </c>
-      <c r="T10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>7.0</v>
-      </c>
       <c r="Z10" t="n">
-        <v>50.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="11">
@@ -4559,7 +4556,7 @@
         <v>171</v>
       </c>
       <c r="B11" t="n">
-        <v>2111.0</v>
+        <v>1620.0</v>
       </c>
       <c r="C11" t="s">
         <v>224</v>
@@ -4568,7 +4565,7 @@
         <v>268</v>
       </c>
       <c r="E11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F11" t="s">
         <v>96</v>
@@ -4580,10 +4577,10 @@
         <v>295</v>
       </c>
       <c r="I11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J11" t="n">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
       <c r="K11" t="n">
         <v>2.0</v>
@@ -4595,22 +4592,22 @@
         <v>0.0</v>
       </c>
       <c r="N11" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="O11" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="P11" t="n">
         <v>0.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
       <c r="R11" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="S11" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="T11" t="n">
         <v>0.0</v>
@@ -4622,16 +4619,16 @@
         <v>0.0</v>
       </c>
       <c r="W11" t="n">
-        <v>19.0</v>
+        <v>8.0</v>
       </c>
       <c r="X11" t="n">
         <v>7.0</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="Z11" t="n">
-        <v>46.7</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="12">
@@ -4639,7 +4636,7 @@
         <v>172</v>
       </c>
       <c r="B12" t="n">
-        <v>2275.0</v>
+        <v>2126.0</v>
       </c>
       <c r="C12" t="s">
         <v>225</v>
@@ -4648,7 +4645,7 @@
         <v>268</v>
       </c>
       <c r="E12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F12" t="s">
         <v>96</v>
@@ -4660,10 +4657,10 @@
         <v>296</v>
       </c>
       <c r="I12" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="J12" t="n">
-        <v>9.4</v>
+        <v>5.1</v>
       </c>
       <c r="K12" t="n">
         <v>2.0</v>
@@ -4675,43 +4672,43 @@
         <v>0.0</v>
       </c>
       <c r="N12" t="n">
-        <v>15.0</v>
+        <v>9.0</v>
       </c>
       <c r="O12" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="P12" t="n">
         <v>0.0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="R12" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="S12" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="T12" t="n">
         <v>0.0</v>
       </c>
       <c r="U12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V12" t="n">
         <v>0.0</v>
       </c>
       <c r="W12" t="n">
-        <v>29.0</v>
+        <v>19.0</v>
       </c>
       <c r="X12" t="n">
-        <v>25.0</v>
+        <v>7.0</v>
       </c>
       <c r="Y12" t="n">
-        <v>32.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z12" t="n">
-        <v>43.9</v>
+        <v>46.7</v>
       </c>
     </row>
     <row r="13">
@@ -4719,7 +4716,7 @@
         <v>173</v>
       </c>
       <c r="B13" t="n">
-        <v>2276.0</v>
+        <v>2291.0</v>
       </c>
       <c r="C13" t="s">
         <v>226</v>
@@ -4743,7 +4740,7 @@
         <v>346</v>
       </c>
       <c r="J13" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="K13" t="n">
         <v>2.0</v>
@@ -4755,10 +4752,10 @@
         <v>0.0</v>
       </c>
       <c r="N13" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="O13" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="P13" t="n">
         <v>0.0</v>
@@ -4770,7 +4767,7 @@
         <v>14.0</v>
       </c>
       <c r="S13" t="n">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="T13" t="n">
         <v>1.0</v>
@@ -4782,16 +4779,16 @@
         <v>0.0</v>
       </c>
       <c r="W13" t="n">
-        <v>48.0</v>
+        <v>52.0</v>
       </c>
       <c r="X13" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="Y13" t="n">
         <v>10.0</v>
       </c>
       <c r="Z13" t="n">
-        <v>66.7</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="14">
@@ -4799,7 +4796,7 @@
         <v>174</v>
       </c>
       <c r="B14" t="n">
-        <v>244.0</v>
+        <v>245.0</v>
       </c>
       <c r="C14" t="s">
         <v>227</v>
@@ -4879,7 +4876,7 @@
         <v>175</v>
       </c>
       <c r="B15" t="n">
-        <v>753.0</v>
+        <v>757.0</v>
       </c>
       <c r="C15" t="s">
         <v>228</v>
@@ -4903,7 +4900,7 @@
         <v>348</v>
       </c>
       <c r="J15" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="K15" t="n">
         <v>1.0</v>
@@ -4918,19 +4915,19 @@
         <v>7.0</v>
       </c>
       <c r="O15" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="P15" t="n">
         <v>0.0</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="R15" t="n">
         <v>3.0</v>
       </c>
       <c r="S15" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="T15" t="n">
         <v>0.0</v>
@@ -4942,7 +4939,7 @@
         <v>0.0</v>
       </c>
       <c r="W15" t="n">
-        <v>29.0</v>
+        <v>34.0</v>
       </c>
       <c r="X15" t="n">
         <v>1.0</v>
@@ -4959,7 +4956,7 @@
         <v>176</v>
       </c>
       <c r="B16" t="n">
-        <v>813.0</v>
+        <v>818.0</v>
       </c>
       <c r="C16" t="s">
         <v>229</v>
@@ -4980,10 +4977,10 @@
         <v>300</v>
       </c>
       <c r="I16" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J16" t="n">
-        <v>3.5</v>
+        <v>4.0</v>
       </c>
       <c r="K16" t="n">
         <v>1.0</v>
@@ -5025,13 +5022,13 @@
         <v>9.0</v>
       </c>
       <c r="X16" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="Y16" t="n">
         <v>11.0</v>
       </c>
       <c r="Z16" t="n">
-        <v>45.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="17">
@@ -5039,7 +5036,7 @@
         <v>177</v>
       </c>
       <c r="B17" t="n">
-        <v>819.0</v>
+        <v>824.0</v>
       </c>
       <c r="C17" t="s">
         <v>230</v>
@@ -5060,7 +5057,7 @@
         <v>301</v>
       </c>
       <c r="I17" t="s">
-        <v>349</v>
+        <v>213</v>
       </c>
       <c r="J17" t="n">
         <v>3.1</v>
@@ -5119,7 +5116,7 @@
         <v>178</v>
       </c>
       <c r="B18" t="n">
-        <v>1174.0</v>
+        <v>1180.0</v>
       </c>
       <c r="C18" t="s">
         <v>231</v>
@@ -5199,7 +5196,7 @@
         <v>179</v>
       </c>
       <c r="B19" t="n">
-        <v>1539.0</v>
+        <v>1329.0</v>
       </c>
       <c r="C19" t="s">
         <v>232</v>
@@ -5208,7 +5205,7 @@
         <v>268</v>
       </c>
       <c r="E19" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F19" t="s">
         <v>94</v>
@@ -5220,10 +5217,10 @@
         <v>303</v>
       </c>
       <c r="I19" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J19" t="n">
-        <v>3.0</v>
+        <v>0.6</v>
       </c>
       <c r="K19" t="n">
         <v>1.0</v>
@@ -5235,43 +5232,43 @@
         <v>0.0</v>
       </c>
       <c r="N19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W19" t="n">
         <v>2.0</v>
       </c>
-      <c r="O19" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="S19" t="n">
+      <c r="X19" t="n">
         <v>2.0</v>
       </c>
-      <c r="T19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>4.0</v>
-      </c>
       <c r="Y19" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z19" t="n">
-        <v>57.1</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="20">
@@ -5279,7 +5276,7 @@
         <v>180</v>
       </c>
       <c r="B20" t="n">
-        <v>1856.0</v>
+        <v>1549.0</v>
       </c>
       <c r="C20" t="s">
         <v>233</v>
@@ -5288,7 +5285,7 @@
         <v>268</v>
       </c>
       <c r="E20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F20" t="s">
         <v>94</v>
@@ -5300,10 +5297,10 @@
         <v>304</v>
       </c>
       <c r="I20" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="J20" t="n">
-        <v>7.3</v>
+        <v>3.0</v>
       </c>
       <c r="K20" t="n">
         <v>1.0</v>
@@ -5315,19 +5312,19 @@
         <v>0.0</v>
       </c>
       <c r="N20" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="O20" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="P20" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q20" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="R20" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="S20" t="n">
         <v>2.0</v>
@@ -5342,16 +5339,16 @@
         <v>0.0</v>
       </c>
       <c r="W20" t="n">
-        <v>34.0</v>
+        <v>14.0</v>
       </c>
       <c r="X20" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="Y20" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="Z20" t="n">
-        <v>50.0</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="21">
@@ -5359,7 +5356,7 @@
         <v>181</v>
       </c>
       <c r="B21" t="n">
-        <v>2174.0</v>
+        <v>1868.0</v>
       </c>
       <c r="C21" t="s">
         <v>234</v>
@@ -5368,7 +5365,7 @@
         <v>268</v>
       </c>
       <c r="E21" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F21" t="s">
         <v>94</v>
@@ -5380,10 +5377,10 @@
         <v>305</v>
       </c>
       <c r="I21" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="J21" t="n">
-        <v>9.6</v>
+        <v>7.3</v>
       </c>
       <c r="K21" t="n">
         <v>1.0</v>
@@ -5395,22 +5392,22 @@
         <v>0.0</v>
       </c>
       <c r="N21" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="O21" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q21" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="R21" t="n">
         <v>2.0</v>
       </c>
-      <c r="R21" t="n">
-        <v>11.0</v>
-      </c>
       <c r="S21" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="T21" t="n">
         <v>0.0</v>
@@ -5422,16 +5419,16 @@
         <v>0.0</v>
       </c>
       <c r="W21" t="n">
-        <v>58.0</v>
+        <v>34.0</v>
       </c>
       <c r="X21" t="n">
-        <v>15.0</v>
+        <v>2.0</v>
       </c>
       <c r="Y21" t="n">
-        <v>17.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z21" t="n">
-        <v>46.9</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="22">
@@ -5439,7 +5436,7 @@
         <v>182</v>
       </c>
       <c r="B22" t="n">
-        <v>2215.0</v>
+        <v>2173.0</v>
       </c>
       <c r="C22" t="s">
         <v>235</v>
@@ -5448,7 +5445,7 @@
         <v>268</v>
       </c>
       <c r="E22" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F22" t="s">
         <v>94</v>
@@ -5460,10 +5457,10 @@
         <v>306</v>
       </c>
       <c r="I22" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="J22" t="n">
-        <v>7.6</v>
+        <v>4.0</v>
       </c>
       <c r="K22" t="n">
         <v>1.0</v>
@@ -5475,43 +5472,43 @@
         <v>0.0</v>
       </c>
       <c r="N22" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="O22" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="P22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R22" t="n">
         <v>6.0</v>
       </c>
-      <c r="Q22" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="X22" t="n">
         <v>2.0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>3.0</v>
       </c>
       <c r="Y22" t="n">
         <v>5.0</v>
       </c>
       <c r="Z22" t="n">
-        <v>37.5</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="23">
@@ -5519,19 +5516,19 @@
         <v>183</v>
       </c>
       <c r="B23" t="n">
-        <v>39.0</v>
+        <v>2189.0</v>
       </c>
       <c r="C23" t="s">
         <v>236</v>
       </c>
       <c r="D23" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E23" t="s">
         <v>278</v>
       </c>
       <c r="F23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G23" t="s">
         <v>285</v>
@@ -5540,10 +5537,10 @@
         <v>307</v>
       </c>
       <c r="I23" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="J23" t="n">
-        <v>7.7</v>
+        <v>9.6</v>
       </c>
       <c r="K23" t="n">
         <v>1.0</v>
@@ -5555,22 +5552,22 @@
         <v>0.0</v>
       </c>
       <c r="N23" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q23" t="n">
         <v>2.0</v>
       </c>
-      <c r="O23" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0.0</v>
-      </c>
       <c r="R23" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="S23" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="T23" t="n">
         <v>0.0</v>
@@ -5582,16 +5579,16 @@
         <v>0.0</v>
       </c>
       <c r="W23" t="n">
-        <v>30.0</v>
+        <v>58.0</v>
       </c>
       <c r="X23" t="n">
-        <v>18.0</v>
+        <v>15.0</v>
       </c>
       <c r="Y23" t="n">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="Z23" t="n">
-        <v>60.0</v>
+        <v>46.9</v>
       </c>
     </row>
     <row r="24">
@@ -5599,7 +5596,7 @@
         <v>184</v>
       </c>
       <c r="B24" t="n">
-        <v>198.0</v>
+        <v>2230.0</v>
       </c>
       <c r="C24" t="s">
         <v>237</v>
@@ -5608,10 +5605,10 @@
         <v>268</v>
       </c>
       <c r="E24" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G24" t="s">
         <v>285</v>
@@ -5620,10 +5617,10 @@
         <v>308</v>
       </c>
       <c r="I24" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="J24" t="n">
-        <v>4.5</v>
+        <v>8.6</v>
       </c>
       <c r="K24" t="n">
         <v>1.0</v>
@@ -5635,43 +5632,43 @@
         <v>0.0</v>
       </c>
       <c r="N24" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O24" t="n">
         <v>10.0</v>
       </c>
-      <c r="O24" t="n">
+      <c r="P24" t="n">
         <v>6.0</v>
       </c>
-      <c r="P24" t="n">
-        <v>1.0</v>
-      </c>
       <c r="Q24" t="n">
-        <v>12.0</v>
+        <v>44.0</v>
       </c>
       <c r="R24" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="S24" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="T24" t="n">
         <v>0.0</v>
       </c>
       <c r="U24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V24" t="n">
         <v>0.0</v>
       </c>
       <c r="W24" t="n">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="X24" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="Y24" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="Z24" t="n">
-        <v>57.1</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="25">
@@ -5679,16 +5676,16 @@
         <v>185</v>
       </c>
       <c r="B25" t="n">
-        <v>812.0</v>
+        <v>39.0</v>
       </c>
       <c r="C25" t="s">
         <v>238</v>
       </c>
       <c r="D25" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E25" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F25" t="s">
         <v>96</v>
@@ -5700,10 +5697,10 @@
         <v>309</v>
       </c>
       <c r="I25" t="s">
-        <v>339</v>
+        <v>213</v>
       </c>
       <c r="J25" t="n">
-        <v>10.6</v>
+        <v>8.7</v>
       </c>
       <c r="K25" t="n">
         <v>1.0</v>
@@ -5715,43 +5712,43 @@
         <v>0.0</v>
       </c>
       <c r="N25" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S25" t="n">
         <v>9.0</v>
       </c>
-      <c r="O25" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>96.0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>18.0</v>
-      </c>
       <c r="T25" t="n">
         <v>0.0</v>
       </c>
       <c r="U25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V25" t="n">
         <v>0.0</v>
       </c>
       <c r="W25" t="n">
-        <v>66.0</v>
+        <v>33.0</v>
       </c>
       <c r="X25" t="n">
-        <v>7.0</v>
+        <v>20.0</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z25" t="n">
-        <v>38.9</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="26">
@@ -5759,7 +5756,7 @@
         <v>186</v>
       </c>
       <c r="B26" t="n">
-        <v>816.0</v>
+        <v>199.0</v>
       </c>
       <c r="C26" t="s">
         <v>239</v>
@@ -5783,7 +5780,7 @@
         <v>340</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5</v>
+        <v>4.9</v>
       </c>
       <c r="K26" t="n">
         <v>1.0</v>
@@ -5795,43 +5792,43 @@
         <v>0.0</v>
       </c>
       <c r="N26" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="O26" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="P26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.0</v>
+        <v>13.0</v>
       </c>
       <c r="R26" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="S26" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="T26" t="n">
         <v>0.0</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V26" t="n">
         <v>0.0</v>
       </c>
       <c r="W26" t="n">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="X26" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="Y26" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.0</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="27">
@@ -5839,16 +5836,16 @@
         <v>187</v>
       </c>
       <c r="B27" t="n">
-        <v>1130.0</v>
+        <v>817.0</v>
       </c>
       <c r="C27" t="s">
         <v>240</v>
       </c>
       <c r="D27" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E27" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F27" t="s">
         <v>96</v>
@@ -5860,10 +5857,10 @@
         <v>311</v>
       </c>
       <c r="I27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J27" t="n">
-        <v>8.7</v>
+        <v>11.0</v>
       </c>
       <c r="K27" t="n">
         <v>1.0</v>
@@ -5875,43 +5872,43 @@
         <v>0.0</v>
       </c>
       <c r="N27" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="X27" t="n">
         <v>8.0</v>
       </c>
-      <c r="O27" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>2.0</v>
-      </c>
       <c r="Y27" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="Z27" t="n">
-        <v>22.2</v>
+        <v>42.1</v>
       </c>
     </row>
     <row r="28">
@@ -5919,7 +5916,7 @@
         <v>188</v>
       </c>
       <c r="B28" t="n">
-        <v>1308.0</v>
+        <v>821.0</v>
       </c>
       <c r="C28" t="s">
         <v>241</v>
@@ -5928,7 +5925,7 @@
         <v>268</v>
       </c>
       <c r="E28" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F28" t="s">
         <v>96</v>
@@ -5940,10 +5937,10 @@
         <v>312</v>
       </c>
       <c r="I28" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="J28" t="n">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="K28" t="n">
         <v>1.0</v>
@@ -5955,7 +5952,7 @@
         <v>0.0</v>
       </c>
       <c r="N28" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="O28" t="n">
         <v>0.0</v>
@@ -5964,10 +5961,10 @@
         <v>0.0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S28" t="n">
         <v>0.0</v>
@@ -5982,16 +5979,16 @@
         <v>0.0</v>
       </c>
       <c r="W28" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="X28" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z28" t="n">
-        <v>70.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="29">
@@ -5999,16 +5996,16 @@
         <v>189</v>
       </c>
       <c r="B29" t="n">
-        <v>1460.0</v>
+        <v>1136.0</v>
       </c>
       <c r="C29" t="s">
         <v>242</v>
       </c>
       <c r="D29" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E29" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F29" t="s">
         <v>96</v>
@@ -6020,10 +6017,10 @@
         <v>313</v>
       </c>
       <c r="I29" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="J29" t="n">
-        <v>1.4</v>
+        <v>9.7</v>
       </c>
       <c r="K29" t="n">
         <v>1.0</v>
@@ -6035,43 +6032,43 @@
         <v>0.0</v>
       </c>
       <c r="N29" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="O29" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="X29" t="n">
         <v>3.0</v>
       </c>
-      <c r="P29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>2.0</v>
-      </c>
       <c r="Y29" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z29" t="n">
-        <v>25.0</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="30">
@@ -6079,7 +6076,7 @@
         <v>190</v>
       </c>
       <c r="B30" t="n">
-        <v>1555.0</v>
+        <v>1316.0</v>
       </c>
       <c r="C30" t="s">
         <v>243</v>
@@ -6100,10 +6097,10 @@
         <v>314</v>
       </c>
       <c r="I30" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="J30" t="n">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="K30" t="n">
         <v>1.0</v>
@@ -6115,22 +6112,22 @@
         <v>0.0</v>
       </c>
       <c r="N30" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="O30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P30" t="n">
         <v>0.0</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T30" t="n">
         <v>0.0</v>
@@ -6142,16 +6139,16 @@
         <v>0.0</v>
       </c>
       <c r="W30" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="X30" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="Z30" t="n">
-        <v>100.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="31">
@@ -6159,7 +6156,7 @@
         <v>191</v>
       </c>
       <c r="B31" t="n">
-        <v>1606.0</v>
+        <v>1470.0</v>
       </c>
       <c r="C31" t="s">
         <v>244</v>
@@ -6168,7 +6165,7 @@
         <v>268</v>
       </c>
       <c r="E31" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F31" t="s">
         <v>96</v>
@@ -6180,37 +6177,37 @@
         <v>315</v>
       </c>
       <c r="I31" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J31" t="n">
-        <v>7.1</v>
+        <v>2.4</v>
       </c>
       <c r="K31" t="n">
         <v>1.0</v>
       </c>
       <c r="L31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M31" t="n">
         <v>0.0</v>
       </c>
       <c r="N31" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O31" t="n">
         <v>4.0</v>
       </c>
-      <c r="O31" t="n">
-        <v>6.0</v>
-      </c>
       <c r="P31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R31" t="n">
         <v>3.0</v>
       </c>
-      <c r="Q31" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0.0</v>
-      </c>
       <c r="S31" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T31" t="n">
         <v>0.0</v>
@@ -6222,16 +6219,16 @@
         <v>0.0</v>
       </c>
       <c r="W31" t="n">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="X31" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Y31" t="n">
         <v>7.0</v>
       </c>
-      <c r="Y31" t="n">
-        <v>17.0</v>
-      </c>
       <c r="Z31" t="n">
-        <v>29.2</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="32">
@@ -6239,16 +6236,16 @@
         <v>192</v>
       </c>
       <c r="B32" t="n">
-        <v>1827.0</v>
+        <v>1566.0</v>
       </c>
       <c r="C32" t="s">
         <v>245</v>
       </c>
       <c r="D32" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E32" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F32" t="s">
         <v>96</v>
@@ -6260,10 +6257,10 @@
         <v>316</v>
       </c>
       <c r="I32" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J32" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="K32" t="n">
         <v>1.0</v>
@@ -6275,43 +6272,43 @@
         <v>0.0</v>
       </c>
       <c r="N32" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="O32" t="n">
         <v>1.0</v>
       </c>
       <c r="P32" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W32" t="n">
         <v>2.0</v>
       </c>
-      <c r="R32" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>5.0</v>
-      </c>
       <c r="X32" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y32" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z32" t="n">
-        <v>41.2</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="33">
@@ -6319,7 +6316,7 @@
         <v>193</v>
       </c>
       <c r="B33" t="n">
-        <v>35.0</v>
+        <v>1617.0</v>
       </c>
       <c r="C33" t="s">
         <v>246</v>
@@ -6328,10 +6325,10 @@
         <v>268</v>
       </c>
       <c r="E33" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F33" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G33" t="s">
         <v>285</v>
@@ -6340,13 +6337,13 @@
         <v>317</v>
       </c>
       <c r="I33" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="J33" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L33" t="n">
         <v>1.0</v>
@@ -6355,43 +6352,43 @@
         <v>0.0</v>
       </c>
       <c r="N33" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q33" t="n">
         <v>2.0</v>
       </c>
-      <c r="O33" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0.0</v>
-      </c>
       <c r="R33" t="n">
         <v>0.0</v>
       </c>
       <c r="S33" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="T33" t="n">
         <v>0.0</v>
       </c>
       <c r="U33" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V33" t="n">
         <v>0.0</v>
       </c>
       <c r="W33" t="n">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
       <c r="X33" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="Z33" t="n">
-        <v>100.0</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="34">
@@ -6399,19 +6396,19 @@
         <v>194</v>
       </c>
       <c r="B34" t="n">
-        <v>117.0</v>
+        <v>1839.0</v>
       </c>
       <c r="C34" t="s">
         <v>247</v>
       </c>
       <c r="D34" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E34" t="s">
         <v>282</v>
       </c>
       <c r="F34" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G34" t="s">
         <v>285</v>
@@ -6420,13 +6417,13 @@
         <v>318</v>
       </c>
       <c r="I34" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="J34" t="n">
-        <v>0.2</v>
+        <v>2.3</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L34" t="n">
         <v>0.0</v>
@@ -6435,22 +6432,22 @@
         <v>0.0</v>
       </c>
       <c r="N34" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="O34" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P34" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S34" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T34" t="n">
         <v>0.0</v>
@@ -6462,16 +6459,16 @@
         <v>0.0</v>
       </c>
       <c r="W34" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z34" t="e">
-        <v>#N/A</v>
+        <v>10.0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>41.2</v>
       </c>
     </row>
     <row r="35">
@@ -6479,7 +6476,7 @@
         <v>195</v>
       </c>
       <c r="B35" t="n">
-        <v>281.0</v>
+        <v>35.0</v>
       </c>
       <c r="C35" t="s">
         <v>248</v>
@@ -6488,7 +6485,7 @@
         <v>268</v>
       </c>
       <c r="E35" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="F35" t="s">
         <v>94</v>
@@ -6500,58 +6497,58 @@
         <v>319</v>
       </c>
       <c r="I35" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J35" t="n">
-        <v>2.7</v>
+        <v>9.4</v>
       </c>
       <c r="K35" t="n">
         <v>0.0</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M35" t="n">
         <v>0.0</v>
       </c>
       <c r="N35" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="O35" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="P35" t="n">
         <v>0.0</v>
       </c>
       <c r="Q35" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="S35" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="T35" t="n">
         <v>0.0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V35" t="n">
         <v>0.0</v>
       </c>
       <c r="W35" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="X35" t="n">
         <v>5.0</v>
       </c>
-      <c r="X35" t="n">
-        <v>4.0</v>
-      </c>
       <c r="Y35" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z35" t="n">
-        <v>57.1</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="36">
@@ -6559,7 +6556,7 @@
         <v>196</v>
       </c>
       <c r="B36" t="n">
-        <v>363.0</v>
+        <v>117.0</v>
       </c>
       <c r="C36" t="s">
         <v>249</v>
@@ -6568,7 +6565,7 @@
         <v>268</v>
       </c>
       <c r="E36" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F36" t="s">
         <v>94</v>
@@ -6580,7 +6577,7 @@
         <v>320</v>
       </c>
       <c r="I36" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="J36" t="n">
         <v>0.2</v>
@@ -6598,7 +6595,7 @@
         <v>0.0</v>
       </c>
       <c r="O36" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P36" t="n">
         <v>0.0</v>
@@ -6607,10 +6604,10 @@
         <v>1.0</v>
       </c>
       <c r="R36" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S36" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T36" t="n">
         <v>0.0</v>
@@ -6622,7 +6619,7 @@
         <v>0.0</v>
       </c>
       <c r="W36" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="X36" t="n">
         <v>0.0</v>
@@ -6639,7 +6636,7 @@
         <v>197</v>
       </c>
       <c r="B37" t="n">
-        <v>590.0</v>
+        <v>282.0</v>
       </c>
       <c r="C37" t="s">
         <v>250</v>
@@ -6648,7 +6645,7 @@
         <v>268</v>
       </c>
       <c r="E37" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F37" t="s">
         <v>94</v>
@@ -6660,10 +6657,10 @@
         <v>321</v>
       </c>
       <c r="I37" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="J37" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="K37" t="n">
         <v>0.0</v>
@@ -6675,43 +6672,43 @@
         <v>0.0</v>
       </c>
       <c r="N37" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="O37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="R37" t="n">
         <v>4.0</v>
       </c>
-      <c r="P37" t="n">
+      <c r="S37" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Y37" t="n">
         <v>3.0</v>
       </c>
-      <c r="Q37" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>9.0</v>
-      </c>
       <c r="Z37" t="n">
-        <v>25.0</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="38">
@@ -6719,7 +6716,7 @@
         <v>198</v>
       </c>
       <c r="B38" t="n">
-        <v>872.0</v>
+        <v>364.0</v>
       </c>
       <c r="C38" t="s">
         <v>251</v>
@@ -6728,7 +6725,7 @@
         <v>268</v>
       </c>
       <c r="E38" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F38" t="s">
         <v>94</v>
@@ -6740,10 +6737,10 @@
         <v>322</v>
       </c>
       <c r="I38" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J38" t="n">
-        <v>7.2</v>
+        <v>0.2</v>
       </c>
       <c r="K38" t="n">
         <v>0.0</v>
@@ -6755,43 +6752,43 @@
         <v>0.0</v>
       </c>
       <c r="N38" t="n">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c r="O38" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="P38" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="R38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W38" t="n">
         <v>3.0</v>
       </c>
-      <c r="S38" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>23.0</v>
-      </c>
       <c r="X38" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y38" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>25.6</v>
+        <v>0.0</v>
+      </c>
+      <c r="Z38" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="39">
@@ -6799,7 +6796,7 @@
         <v>199</v>
       </c>
       <c r="B39" t="n">
-        <v>1291.0</v>
+        <v>593.0</v>
       </c>
       <c r="C39" t="s">
         <v>252</v>
@@ -6808,7 +6805,7 @@
         <v>268</v>
       </c>
       <c r="E39" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F39" t="s">
         <v>94</v>
@@ -6820,10 +6817,10 @@
         <v>323</v>
       </c>
       <c r="I39" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="J39" t="n">
-        <v>6.6</v>
+        <v>3.8</v>
       </c>
       <c r="K39" t="n">
         <v>0.0</v>
@@ -6835,43 +6832,43 @@
         <v>0.0</v>
       </c>
       <c r="N39" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W39" t="n">
         <v>8.0</v>
       </c>
-      <c r="O39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W39" t="n">
-        <v>29.0</v>
-      </c>
       <c r="X39" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="Y39" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="Z39" t="n">
-        <v>62.5</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="40">
@@ -6879,7 +6876,7 @@
         <v>200</v>
       </c>
       <c r="B40" t="n">
-        <v>1321.0</v>
+        <v>877.0</v>
       </c>
       <c r="C40" t="s">
         <v>253</v>
@@ -6900,10 +6897,10 @@
         <v>324</v>
       </c>
       <c r="I40" t="s">
-        <v>346</v>
+        <v>213</v>
       </c>
       <c r="J40" t="n">
-        <v>0.5</v>
+        <v>7.5</v>
       </c>
       <c r="K40" t="n">
         <v>0.0</v>
@@ -6915,22 +6912,22 @@
         <v>0.0</v>
       </c>
       <c r="N40" t="n">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T40" t="n">
         <v>0.0</v>
@@ -6942,16 +6939,16 @@
         <v>0.0</v>
       </c>
       <c r="W40" t="n">
-        <v>1.0</v>
+        <v>23.0</v>
       </c>
       <c r="X40" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.0</v>
+        <v>32.0</v>
       </c>
       <c r="Z40" t="n">
-        <v>66.7</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="41">
@@ -6959,7 +6956,7 @@
         <v>201</v>
       </c>
       <c r="B41" t="n">
-        <v>1611.0</v>
+        <v>1299.0</v>
       </c>
       <c r="C41" t="s">
         <v>254</v>
@@ -6968,7 +6965,7 @@
         <v>268</v>
       </c>
       <c r="E41" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F41" t="s">
         <v>94</v>
@@ -6980,10 +6977,10 @@
         <v>325</v>
       </c>
       <c r="I41" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J41" t="n">
-        <v>3.6</v>
+        <v>7.6</v>
       </c>
       <c r="K41" t="n">
         <v>0.0</v>
@@ -6995,22 +6992,22 @@
         <v>0.0</v>
       </c>
       <c r="N41" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="O41" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P41" t="n">
         <v>0.0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="R41" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="S41" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="T41" t="n">
         <v>0.0</v>
@@ -7019,19 +7016,19 @@
         <v>0.0</v>
       </c>
       <c r="V41" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W41" t="n">
-        <v>4.0</v>
+        <v>41.0</v>
       </c>
       <c r="X41" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="Z41" t="n">
-        <v>100.0</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="42">
@@ -7039,7 +7036,7 @@
         <v>202</v>
       </c>
       <c r="B42" t="n">
-        <v>1915.0</v>
+        <v>1622.0</v>
       </c>
       <c r="C42" t="s">
         <v>255</v>
@@ -7048,7 +7045,7 @@
         <v>268</v>
       </c>
       <c r="E42" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F42" t="s">
         <v>94</v>
@@ -7060,10 +7057,10 @@
         <v>326</v>
       </c>
       <c r="I42" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J42" t="n">
-        <v>0.2</v>
+        <v>3.6</v>
       </c>
       <c r="K42" t="n">
         <v>0.0</v>
@@ -7078,19 +7075,19 @@
         <v>0.0</v>
       </c>
       <c r="O42" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P42" t="n">
         <v>0.0</v>
       </c>
       <c r="Q42" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="R42" t="n">
         <v>0.0</v>
       </c>
       <c r="S42" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T42" t="n">
         <v>0.0</v>
@@ -7099,19 +7096,19 @@
         <v>0.0</v>
       </c>
       <c r="V42" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W42" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y42" t="n">
         <v>0.0</v>
       </c>
-      <c r="Z42" t="e">
-        <v>#N/A</v>
+      <c r="Z42" t="n">
+        <v>100.0</v>
       </c>
     </row>
     <row r="43">
@@ -7119,7 +7116,7 @@
         <v>203</v>
       </c>
       <c r="B43" t="n">
-        <v>2158.0</v>
+        <v>1927.0</v>
       </c>
       <c r="C43" t="s">
         <v>256</v>
@@ -7128,7 +7125,7 @@
         <v>268</v>
       </c>
       <c r="E43" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F43" t="s">
         <v>94</v>
@@ -7140,10 +7137,10 @@
         <v>327</v>
       </c>
       <c r="I43" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="J43" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="K43" t="n">
         <v>0.0</v>
@@ -7155,22 +7152,22 @@
         <v>0.0</v>
       </c>
       <c r="N43" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="O43" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="P43" t="n">
         <v>0.0</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="S43" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T43" t="n">
         <v>0.0</v>
@@ -7182,16 +7179,16 @@
         <v>0.0</v>
       </c>
       <c r="W43" t="n">
-        <v>21.0</v>
+        <v>2.0</v>
       </c>
       <c r="X43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y43" t="n">
         <v>2.0</v>
       </c>
-      <c r="Y43" t="n">
-        <v>3.0</v>
-      </c>
       <c r="Z43" t="n">
-        <v>40.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44">
@@ -7199,7 +7196,7 @@
         <v>204</v>
       </c>
       <c r="B44" t="n">
-        <v>2213.0</v>
+        <v>2228.0</v>
       </c>
       <c r="C44" t="s">
         <v>257</v>
@@ -7220,7 +7217,7 @@
         <v>328</v>
       </c>
       <c r="I44" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J44" t="n">
         <v>10.8</v>
@@ -7279,7 +7276,7 @@
         <v>205</v>
       </c>
       <c r="B45" t="n">
-        <v>215.0</v>
+        <v>216.0</v>
       </c>
       <c r="C45" t="s">
         <v>258</v>
@@ -7300,25 +7297,25 @@
         <v>329</v>
       </c>
       <c r="I45" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="J45" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N45" t="n">
         <v>6.0</v>
       </c>
-      <c r="K45" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>5.0</v>
-      </c>
       <c r="O45" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="P45" t="n">
         <v>6.0</v>
@@ -7330,7 +7327,7 @@
         <v>1.0</v>
       </c>
       <c r="S45" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T45" t="n">
         <v>0.0</v>
@@ -7342,16 +7339,16 @@
         <v>0.0</v>
       </c>
       <c r="W45" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Y45" t="n">
         <v>10.0</v>
       </c>
-      <c r="X45" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>8.0</v>
-      </c>
       <c r="Z45" t="n">
-        <v>42.9</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="46">
@@ -7359,7 +7356,7 @@
         <v>206</v>
       </c>
       <c r="B46" t="n">
-        <v>661.0</v>
+        <v>665.0</v>
       </c>
       <c r="C46" t="s">
         <v>259</v>
@@ -7380,10 +7377,10 @@
         <v>330</v>
       </c>
       <c r="I46" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J46" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="K46" t="n">
         <v>0.0</v>
@@ -7395,7 +7392,7 @@
         <v>0.0</v>
       </c>
       <c r="N46" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="O46" t="n">
         <v>5.0</v>
@@ -7407,7 +7404,7 @@
         <v>1.0</v>
       </c>
       <c r="R46" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="S46" t="n">
         <v>2.0</v>
@@ -7425,13 +7422,13 @@
         <v>14.0</v>
       </c>
       <c r="X46" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="Y46" t="n">
         <v>3.0</v>
       </c>
       <c r="Z46" t="n">
-        <v>50.0</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="47">
@@ -7439,7 +7436,7 @@
         <v>207</v>
       </c>
       <c r="B47" t="n">
-        <v>1213.0</v>
+        <v>1220.0</v>
       </c>
       <c r="C47" t="s">
         <v>260</v>
@@ -7519,7 +7516,7 @@
         <v>208</v>
       </c>
       <c r="B48" t="n">
-        <v>1256.0</v>
+        <v>1264.0</v>
       </c>
       <c r="C48" t="s">
         <v>261</v>
@@ -7599,7 +7596,7 @@
         <v>209</v>
       </c>
       <c r="B49" t="n">
-        <v>1297.0</v>
+        <v>1305.0</v>
       </c>
       <c r="C49" t="s">
         <v>262</v>
@@ -7620,7 +7617,7 @@
         <v>333</v>
       </c>
       <c r="I49" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J49" t="n">
         <v>0.5</v>
@@ -7679,7 +7676,7 @@
         <v>210</v>
       </c>
       <c r="B50" t="n">
-        <v>1565.0</v>
+        <v>1576.0</v>
       </c>
       <c r="C50" t="s">
         <v>263</v>
@@ -7759,7 +7756,7 @@
         <v>211</v>
       </c>
       <c r="B51" t="n">
-        <v>1749.0</v>
+        <v>1760.0</v>
       </c>
       <c r="C51" t="s">
         <v>264</v>
@@ -7780,10 +7777,10 @@
         <v>335</v>
       </c>
       <c r="I51" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="J51" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="K51" t="n">
         <v>0.0</v>
@@ -7822,7 +7819,7 @@
         <v>0.0</v>
       </c>
       <c r="W51" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="X51" t="n">
         <v>0.0</v>
@@ -7839,7 +7836,7 @@
         <v>212</v>
       </c>
       <c r="B52" t="n">
-        <v>1992.0</v>
+        <v>2006.0</v>
       </c>
       <c r="C52" t="s">
         <v>265</v>
@@ -7860,10 +7857,10 @@
         <v>336</v>
       </c>
       <c r="I52" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J52" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="K52" t="n">
         <v>0.0</v>
@@ -7875,7 +7872,7 @@
         <v>0.0</v>
       </c>
       <c r="N52" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="O52" t="n">
         <v>0.0</v>
@@ -7890,7 +7887,7 @@
         <v>0.0</v>
       </c>
       <c r="S52" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="T52" t="n">
         <v>0.0</v>
@@ -7902,16 +7899,16 @@
         <v>0.0</v>
       </c>
       <c r="W52" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="X52" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Y52" t="n">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="Z52" t="n">
-        <v>31.8</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="53">
@@ -7919,7 +7916,7 @@
         <v>213</v>
       </c>
       <c r="B53" t="n">
-        <v>2009.0</v>
+        <v>2023.0</v>
       </c>
       <c r="C53" t="s">
         <v>266</v>
@@ -7943,7 +7940,7 @@
         <v>341</v>
       </c>
       <c r="J53" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="K53" t="n">
         <v>0.0</v>
@@ -7967,10 +7964,10 @@
         <v>4.0</v>
       </c>
       <c r="R53" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="S53" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="T53" t="n">
         <v>0.0</v>
@@ -7982,16 +7979,16 @@
         <v>0.0</v>
       </c>
       <c r="W53" t="n">
-        <v>42.0</v>
+        <v>45.0</v>
       </c>
       <c r="X53" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="Y53" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="Z53" t="n">
-        <v>50.0</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="54">
@@ -7999,7 +7996,7 @@
         <v>214</v>
       </c>
       <c r="B54" t="n">
-        <v>2096.0</v>
+        <v>2111.0</v>
       </c>
       <c r="C54" t="s">
         <v>267</v>
@@ -8020,7 +8017,7 @@
         <v>338</v>
       </c>
       <c r="I54" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J54" t="n">
         <v>3.5</v>
@@ -8114,90 +8111,90 @@
         <v>144</v>
       </c>
       <c r="J1" t="s">
+        <v>354</v>
+      </c>
+      <c r="K1" t="s">
         <v>355</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>356</v>
-      </c>
-      <c r="L1" t="s">
-        <v>357</v>
       </c>
       <c r="M1" t="s">
         <v>145</v>
       </c>
       <c r="N1" t="s">
+        <v>357</v>
+      </c>
+      <c r="O1" t="s">
         <v>358</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>359</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>360</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>361</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>362</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>363</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>364</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>365</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>366</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>367</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>368</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>369</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>370</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>371</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>372</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>373</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>374</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>375</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>376</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>377</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B2" t="n">
-        <v>1856.0</v>
+        <v>1868.0</v>
       </c>
       <c r="C2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
         <v>268</v>
@@ -8212,7 +8209,7 @@
         <v>285</v>
       </c>
       <c r="H2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I2" t="s">
         <v>339</v>
@@ -8295,16 +8292,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B3" t="n">
-        <v>2213.0</v>
+        <v>877.0</v>
       </c>
       <c r="C3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E3" t="s">
         <v>282</v>
@@ -8316,31 +8313,31 @@
         <v>285</v>
       </c>
       <c r="H3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I3" t="s">
-        <v>352</v>
+        <v>213</v>
       </c>
       <c r="J3" t="n">
         <v>12.0</v>
       </c>
       <c r="K3" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="L3" t="n">
-        <v>974.0</v>
+        <v>677.0</v>
       </c>
       <c r="M3" t="n">
-        <v>10.8</v>
+        <v>7.5</v>
       </c>
       <c r="N3" t="n">
         <v>3.0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="P3" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q3" t="n">
         <v>3.0</v>
@@ -8358,93 +8355,93 @@
         <v>0.0</v>
       </c>
       <c r="V3" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="W3" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="X3" t="n">
-        <v>3.9</v>
+        <v>0.2</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.3</v>
+        <v>1.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>31.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA3" t="n">
-        <v>25.0</v>
+        <v>3.0</v>
       </c>
       <c r="AB3" t="n">
-        <v>103.0</v>
+        <v>26.0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.28</v>
+        <v>0.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.37</v>
+        <v>0.27</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.28</v>
+        <v>0.4</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.32</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="B4" t="n">
-        <v>1130.0</v>
+        <v>2228.0</v>
       </c>
       <c r="C4" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="D4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G4" t="s">
         <v>285</v>
       </c>
       <c r="H4" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="I4" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="J4" t="n">
         <v>12.0</v>
       </c>
       <c r="K4" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="L4" t="n">
-        <v>779.0</v>
+        <v>974.0</v>
       </c>
       <c r="M4" t="n">
-        <v>8.7</v>
+        <v>10.8</v>
       </c>
       <c r="N4" t="n">
         <v>3.0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="P4" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="Q4" t="n">
         <v>3.0</v>
@@ -8456,170 +8453,170 @@
         <v>0.0</v>
       </c>
       <c r="T4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U4" t="n">
         <v>0.0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="W4" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="X4" t="n">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.0</v>
+        <v>7.3</v>
       </c>
       <c r="Z4" t="n">
-        <v>51.0</v>
+        <v>31.0</v>
       </c>
       <c r="AA4" t="n">
-        <v>44.0</v>
+        <v>25.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>86.0</v>
+        <v>103.0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.35</v>
+        <v>0.28</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.0</v>
+        <v>0.37</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.35</v>
+        <v>0.65</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.35</v>
+        <v>0.28</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.35</v>
+        <v>0.65</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.19</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="B5" t="n">
-        <v>245.0</v>
+        <v>1136.0</v>
       </c>
       <c r="C5" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="D5" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G5" t="s">
         <v>285</v>
       </c>
       <c r="H5" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="I5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J5" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="K5" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="L5" t="n">
-        <v>643.0</v>
+        <v>869.0</v>
       </c>
       <c r="M5" t="n">
-        <v>7.1</v>
+        <v>9.7</v>
       </c>
       <c r="N5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="O5" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="P5" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="R5" t="n">
         <v>0.0</v>
       </c>
       <c r="S5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T5" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="U5" t="n">
         <v>0.0</v>
       </c>
       <c r="V5" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="W5" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="X5" t="n">
         <v>2.0</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Z5" t="n">
-        <v>23.0</v>
+        <v>55.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>17.0</v>
+        <v>46.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>58.0</v>
+        <v>90.0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.56</v>
+        <v>0.0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.84</v>
+        <v>0.31</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.84</v>
+        <v>0.31</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.37</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="B6" t="n">
-        <v>872.0</v>
+        <v>246.0</v>
       </c>
       <c r="C6" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
         <v>268</v>
       </c>
       <c r="E6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F6" t="s">
         <v>94</v>
@@ -8628,31 +8625,31 @@
         <v>285</v>
       </c>
       <c r="H6" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="I6" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="J6" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="K6" t="n">
         <v>8.0</v>
       </c>
       <c r="L6" t="n">
-        <v>650.0</v>
+        <v>706.0</v>
       </c>
       <c r="M6" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="N6" t="n">
         <v>2.0</v>
       </c>
       <c r="O6" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="P6" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="Q6" t="n">
         <v>2.0</v>
@@ -8661,63 +8658,63 @@
         <v>0.0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="U6" t="n">
         <v>0.0</v>
       </c>
       <c r="V6" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="W6" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.0</v>
+        <v>23.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>3.0</v>
+        <v>22.0</v>
       </c>
       <c r="AB6" t="n">
-        <v>24.0</v>
+        <v>64.0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.28</v>
+        <v>0.51</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.55</v>
+        <v>0.76</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.55</v>
+        <v>0.76</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.16</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B7" t="n">
-        <v>2174.0</v>
+        <v>2189.0</v>
       </c>
       <c r="C7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D7" t="s">
         <v>268</v>
@@ -8732,7 +8729,7 @@
         <v>285</v>
       </c>
       <c r="H7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I7" t="s">
         <v>346</v>
@@ -8815,13 +8812,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B8" t="n">
-        <v>1606.0</v>
+        <v>1617.0</v>
       </c>
       <c r="C8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D8" t="s">
         <v>268</v>
@@ -8836,22 +8833,22 @@
         <v>285</v>
       </c>
       <c r="H8" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="I8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J8" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="K8" t="n">
         <v>10.0</v>
       </c>
-      <c r="K8" t="n">
-        <v>9.0</v>
-      </c>
       <c r="L8" t="n">
-        <v>642.0</v>
+        <v>703.0</v>
       </c>
       <c r="M8" t="n">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
       <c r="N8" t="n">
         <v>2.0</v>
@@ -8878,43 +8875,43 @@
         <v>1.0</v>
       </c>
       <c r="V8" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="W8" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="X8" t="n">
         <v>0.7</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="Z8" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="AA8" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>45.0</v>
+        <v>48.0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.31</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9">
@@ -8922,7 +8919,7 @@
         <v>212</v>
       </c>
       <c r="B9" t="n">
-        <v>1992.0</v>
+        <v>2006.0</v>
       </c>
       <c r="C9" t="s">
         <v>265</v>
@@ -8943,19 +8940,19 @@
         <v>336</v>
       </c>
       <c r="I9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J9" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="K9" t="n">
         <v>3.0</v>
       </c>
       <c r="L9" t="n">
-        <v>294.0</v>
+        <v>323.0</v>
       </c>
       <c r="M9" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N9" t="n">
         <v>2.0</v>
@@ -8994,42 +8991,42 @@
         <v>2.7</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AA9" t="n">
         <v>3.0</v>
       </c>
       <c r="AB9" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.61</v>
+        <v>0.56</v>
       </c>
       <c r="AD9" t="n">
         <v>0.0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.61</v>
+        <v>0.56</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.61</v>
+        <v>0.56</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.61</v>
+        <v>0.56</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.83</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B10" t="n">
-        <v>590.0</v>
+        <v>593.0</v>
       </c>
       <c r="C10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D10" t="s">
         <v>268</v>
@@ -9044,22 +9041,22 @@
         <v>285</v>
       </c>
       <c r="H10" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I10" t="s">
         <v>346</v>
       </c>
       <c r="J10" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="K10" t="n">
         <v>3.0</v>
       </c>
       <c r="L10" t="n">
-        <v>301.0</v>
+        <v>346.0</v>
       </c>
       <c r="M10" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="N10" t="n">
         <v>1.0</v>
@@ -9086,54 +9083,54 @@
         <v>0.0</v>
       </c>
       <c r="V10" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="W10" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="X10" t="n">
         <v>0.7</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.0</v>
+        <v>1.2</v>
       </c>
       <c r="Z10" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="AA10" t="n">
         <v>6.0</v>
       </c>
       <c r="AB10" t="n">
-        <v>31.0</v>
+        <v>35.0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="AD10" t="n">
         <v>0.0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B11" t="n">
-        <v>993.0</v>
+        <v>998.0</v>
       </c>
       <c r="C11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D11" t="s">
         <v>268</v>
@@ -9148,22 +9145,22 @@
         <v>285</v>
       </c>
       <c r="H11" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J11" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="K11" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="L11" t="n">
-        <v>566.0</v>
+        <v>611.0</v>
       </c>
       <c r="M11" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="N11" t="n">
         <v>1.0</v>
@@ -9184,7 +9181,7 @@
         <v>0.0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="U11" t="n">
         <v>1.0</v>
@@ -9196,34 +9193,34 @@
         <v>0.2</v>
       </c>
       <c r="X11" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="Y11" t="n">
         <v>0.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="AA11" t="n">
-        <v>28.0</v>
+        <v>31.0</v>
       </c>
       <c r="AB11" t="n">
         <v>10.0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="AD11" t="n">
         <v>0.0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="AH11" t="n">
         <v>0.04</v>
@@ -9234,7 +9231,7 @@
         <v>162</v>
       </c>
       <c r="B12" t="n">
-        <v>1623.0</v>
+        <v>1634.0</v>
       </c>
       <c r="C12" t="s">
         <v>215</v>
@@ -9258,16 +9255,16 @@
         <v>339</v>
       </c>
       <c r="J12" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="K12" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="L12" t="n">
-        <v>574.0</v>
+        <v>664.0</v>
       </c>
       <c r="M12" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="N12" t="n">
         <v>1.0</v>
@@ -9306,31 +9303,31 @@
         <v>1.1</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA12" t="n">
-        <v>11.0</v>
+        <v>20.0</v>
       </c>
       <c r="AB12" t="n">
         <v>0.0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="AD12" t="n">
         <v>0.0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="13">
@@ -9338,7 +9335,7 @@
         <v>163</v>
       </c>
       <c r="B13" t="n">
-        <v>1707.0</v>
+        <v>1718.0</v>
       </c>
       <c r="C13" t="s">
         <v>216</v>
@@ -9362,16 +9359,16 @@
         <v>340</v>
       </c>
       <c r="J13" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K13" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="L13" t="n">
-        <v>540.0</v>
+        <v>585.0</v>
       </c>
       <c r="M13" t="n">
-        <v>6.0</v>
+        <v>6.5</v>
       </c>
       <c r="N13" t="n">
         <v>1.0</v>
@@ -9392,7 +9389,7 @@
         <v>0.0</v>
       </c>
       <c r="T13" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="U13" t="n">
         <v>0.0</v>
@@ -9413,25 +9410,25 @@
         <v>8.0</v>
       </c>
       <c r="AA13" t="n">
-        <v>18.0</v>
+        <v>24.0</v>
       </c>
       <c r="AB13" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AD13" t="n">
         <v>0.0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AH13" t="n">
         <v>0.03</v>
@@ -9439,13 +9436,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B14" t="n">
-        <v>2215.0</v>
+        <v>2230.0</v>
       </c>
       <c r="C14" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D14" t="s">
         <v>268</v>
@@ -9460,22 +9457,22 @@
         <v>285</v>
       </c>
       <c r="H14" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="I14" t="s">
         <v>341</v>
       </c>
       <c r="J14" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K14" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="L14" t="n">
-        <v>683.0</v>
+        <v>773.0</v>
       </c>
       <c r="M14" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="N14" t="n">
         <v>1.0</v>
@@ -9502,60 +9499,60 @@
         <v>0.0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.0</v>
+        <v>1.4</v>
       </c>
       <c r="W14" t="n">
-        <v>1.0</v>
+        <v>1.4</v>
       </c>
       <c r="X14" t="n">
         <v>1.8</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="Z14" t="n">
-        <v>42.0</v>
+        <v>54.0</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="AB14" t="n">
-        <v>84.0</v>
+        <v>104.0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="B15" t="n">
-        <v>1374.0</v>
+        <v>216.0</v>
       </c>
       <c r="C15" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="D15" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F15" t="s">
         <v>96</v>
@@ -9564,31 +9561,31 @@
         <v>285</v>
       </c>
       <c r="H15" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="I15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J15" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="K15" t="n">
         <v>7.0</v>
       </c>
       <c r="L15" t="n">
-        <v>571.0</v>
+        <v>599.0</v>
       </c>
       <c r="M15" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="N15" t="n">
         <v>1.0</v>
       </c>
       <c r="O15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q15" t="n">
         <v>1.0</v>
@@ -9600,7 +9597,7 @@
         <v>0.0</v>
       </c>
       <c r="T15" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="U15" t="n">
         <v>0.0</v>
@@ -9612,51 +9609,51 @@
         <v>1.4</v>
       </c>
       <c r="X15" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="Z15" t="n">
-        <v>16.0</v>
+        <v>27.0</v>
       </c>
       <c r="AA15" t="n">
-        <v>33.0</v>
+        <v>14.0</v>
       </c>
       <c r="AB15" t="n">
-        <v>34.0</v>
+        <v>61.0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.16</v>
+        <v>0.0</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.32</v>
+        <v>0.15</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.32</v>
+        <v>0.15</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
       <c r="B16" t="n">
-        <v>2009.0</v>
+        <v>1383.0</v>
       </c>
       <c r="C16" t="s">
-        <v>266</v>
+        <v>219</v>
       </c>
       <c r="D16" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="E16" t="s">
         <v>279</v>
@@ -9668,31 +9665,31 @@
         <v>285</v>
       </c>
       <c r="H16" t="s">
-        <v>337</v>
+        <v>290</v>
       </c>
       <c r="I16" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J16" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="K16" t="n">
         <v>8.0</v>
       </c>
       <c r="L16" t="n">
-        <v>645.0</v>
+        <v>661.0</v>
       </c>
       <c r="M16" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="N16" t="n">
         <v>1.0</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q16" t="n">
         <v>1.0</v>
@@ -9704,63 +9701,63 @@
         <v>0.0</v>
       </c>
       <c r="T16" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="U16" t="n">
         <v>0.0</v>
       </c>
       <c r="V16" t="n">
-        <v>1.0</v>
+        <v>1.6</v>
       </c>
       <c r="W16" t="n">
-        <v>1.0</v>
+        <v>1.6</v>
       </c>
       <c r="X16" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="Z16" t="n">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
       <c r="AA16" t="n">
-        <v>31.0</v>
+        <v>41.0</v>
       </c>
       <c r="AB16" t="n">
-        <v>20.0</v>
+        <v>37.0</v>
       </c>
       <c r="AC16" t="n">
         <v>0.14</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.0</v>
+        <v>0.14</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.14</v>
+        <v>0.27</v>
       </c>
       <c r="AF16" t="n">
         <v>0.14</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.14</v>
+        <v>0.27</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="B17" t="n">
-        <v>2276.0</v>
+        <v>2023.0</v>
       </c>
       <c r="C17" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="D17" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E17" t="s">
         <v>279</v>
@@ -9772,22 +9769,22 @@
         <v>285</v>
       </c>
       <c r="H17" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="I17" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="J17" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="K17" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="L17" t="e">
-        <v>#N/A</v>
+        <v>9.0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>705.0</v>
       </c>
       <c r="M17" t="n">
-        <v>11.5</v>
+        <v>7.8</v>
       </c>
       <c r="N17" t="n">
         <v>1.0</v>
@@ -9808,102 +9805,102 @@
         <v>0.0</v>
       </c>
       <c r="T17" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="U17" t="n">
         <v>0.0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.2</v>
+        <v>1.0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.2</v>
+        <v>1.0</v>
       </c>
       <c r="X17" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="Y17" t="n">
         <v>1.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>22.0</v>
+        <v>11.0</v>
       </c>
       <c r="AA17" t="n">
-        <v>89.0</v>
+        <v>33.0</v>
       </c>
       <c r="AB17" t="n">
         <v>21.0</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="B18" t="n">
-        <v>35.0</v>
+        <v>2291.0</v>
       </c>
       <c r="C18" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="D18" t="s">
         <v>268</v>
       </c>
       <c r="E18" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G18" t="s">
         <v>285</v>
       </c>
       <c r="H18" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="I18" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="J18" t="n">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="K18" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>756.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="L18" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M18" t="n">
-        <v>8.4</v>
+        <v>12.5</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P18" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R18" t="n">
         <v>0.0</v>
@@ -9912,66 +9909,66 @@
         <v>0.0</v>
       </c>
       <c r="T18" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="U18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V18" t="n">
-        <v>0.0</v>
+        <v>1.2</v>
       </c>
       <c r="W18" t="n">
-        <v>0.0</v>
+        <v>1.2</v>
       </c>
       <c r="X18" t="n">
-        <v>0.0</v>
+        <v>0.6</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.0</v>
+        <v>1.8</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.0</v>
+        <v>91.0</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.0</v>
+        <v>0.08</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.0</v>
+        <v>0.08</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.0</v>
+        <v>0.16</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.0</v>
+        <v>0.08</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.0</v>
+        <v>0.16</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.0</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="B19" t="n">
-        <v>81.0</v>
+        <v>35.0</v>
       </c>
       <c r="C19" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="D19" t="s">
         <v>268</v>
       </c>
       <c r="E19" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="F19" t="s">
         <v>94</v>
@@ -9980,22 +9977,22 @@
         <v>285</v>
       </c>
       <c r="H19" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="I19" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J19" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="K19" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="L19" t="n">
-        <v>450.0</v>
+        <v>846.0</v>
       </c>
       <c r="M19" t="n">
-        <v>5.0</v>
+        <v>9.4</v>
       </c>
       <c r="N19" t="n">
         <v>0.0</v>
@@ -10016,28 +10013,28 @@
         <v>0.0</v>
       </c>
       <c r="T19" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V19" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="X19" t="n">
         <v>0.0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="Z19" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA19" t="n">
-        <v>36.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB19" t="n">
         <v>0.0</v>
@@ -10058,24 +10055,24 @@
         <v>0.0</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.02</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="B20" t="n">
-        <v>117.0</v>
+        <v>81.0</v>
       </c>
       <c r="C20" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D20" t="s">
         <v>268</v>
       </c>
       <c r="E20" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F20" t="s">
         <v>94</v>
@@ -10084,67 +10081,67 @@
         <v>285</v>
       </c>
       <c r="H20" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="I20" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="J20" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="L20" t="n">
-        <v>19.0</v>
+        <v>540.0</v>
       </c>
       <c r="M20" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>0.2</v>
       </c>
-      <c r="N20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Z20" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="AA20" t="n">
-        <v>3.0</v>
+        <v>46.0</v>
       </c>
       <c r="AB20" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC20" t="n">
         <v>0.0</v>
@@ -10162,24 +10159,24 @@
         <v>0.0</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="B21" t="n">
-        <v>244.0</v>
+        <v>117.0</v>
       </c>
       <c r="C21" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="D21" t="s">
         <v>268</v>
       </c>
       <c r="E21" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F21" t="s">
         <v>94</v>
@@ -10188,22 +10185,22 @@
         <v>285</v>
       </c>
       <c r="H21" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="I21" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="J21" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="K21" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="L21" t="n">
-        <v>725.0</v>
+        <v>19.0</v>
       </c>
       <c r="M21" t="n">
-        <v>8.1</v>
+        <v>0.2</v>
       </c>
       <c r="N21" t="n">
         <v>0.0</v>
@@ -10224,31 +10221,31 @@
         <v>0.0</v>
       </c>
       <c r="T21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U21" t="n">
         <v>0.0</v>
       </c>
       <c r="V21" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="W21" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="X21" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.8</v>
+        <v>0.0</v>
       </c>
       <c r="Z21" t="n">
-        <v>18.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA21" t="n">
-        <v>64.0</v>
+        <v>3.0</v>
       </c>
       <c r="AB21" t="n">
-        <v>26.0</v>
+        <v>2.0</v>
       </c>
       <c r="AC21" t="n">
         <v>0.0</v>
@@ -10266,18 +10263,18 @@
         <v>0.0</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.03</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="B22" t="n">
-        <v>281.0</v>
+        <v>245.0</v>
       </c>
       <c r="C22" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="D22" t="s">
         <v>268</v>
@@ -10292,22 +10289,22 @@
         <v>285</v>
       </c>
       <c r="H22" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="I22" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="J22" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="K22" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="L22" t="n">
-        <v>247.0</v>
+        <v>725.0</v>
       </c>
       <c r="M22" t="n">
-        <v>2.7</v>
+        <v>8.1</v>
       </c>
       <c r="N22" t="n">
         <v>0.0</v>
@@ -10328,31 +10325,31 @@
         <v>0.0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U22" t="n">
         <v>0.0</v>
       </c>
       <c r="V22" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="W22" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="X22" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.0</v>
+        <v>0.8</v>
       </c>
       <c r="Z22" t="n">
-        <v>3.0</v>
+        <v>18.0</v>
       </c>
       <c r="AA22" t="n">
-        <v>6.0</v>
+        <v>64.0</v>
       </c>
       <c r="AB22" t="n">
-        <v>4.0</v>
+        <v>26.0</v>
       </c>
       <c r="AC22" t="n">
         <v>0.0</v>
@@ -10370,24 +10367,24 @@
         <v>0.0</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B23" t="n">
-        <v>363.0</v>
+        <v>282.0</v>
       </c>
       <c r="C23" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D23" t="s">
         <v>268</v>
       </c>
       <c r="E23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F23" t="s">
         <v>94</v>
@@ -10396,22 +10393,22 @@
         <v>285</v>
       </c>
       <c r="H23" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I23" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="J23" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="L23" t="n">
-        <v>20.0</v>
+        <v>337.0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2</v>
+        <v>3.7</v>
       </c>
       <c r="N23" t="n">
         <v>0.0</v>
@@ -10450,13 +10447,13 @@
         <v>0.0</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="AB23" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="AC23" t="n">
         <v>0.0</v>
@@ -10474,18 +10471,18 @@
         <v>0.0</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="B24" t="n">
-        <v>753.0</v>
+        <v>364.0</v>
       </c>
       <c r="C24" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="D24" t="s">
         <v>268</v>
@@ -10500,22 +10497,22 @@
         <v>285</v>
       </c>
       <c r="H24" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="I24" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J24" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="K24" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="L24" t="n">
-        <v>435.0</v>
+        <v>20.0</v>
       </c>
       <c r="M24" t="n">
-        <v>4.8</v>
+        <v>0.2</v>
       </c>
       <c r="N24" t="n">
         <v>0.0</v>
@@ -10536,7 +10533,7 @@
         <v>0.0</v>
       </c>
       <c r="T24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U24" t="n">
         <v>0.0</v>
@@ -10548,19 +10545,19 @@
         <v>0.0</v>
       </c>
       <c r="X24" t="n">
-        <v>0.6</v>
+        <v>0.0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.7</v>
+        <v>0.0</v>
       </c>
       <c r="Z24" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA24" t="n">
-        <v>40.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB24" t="n">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
       <c r="AC24" t="n">
         <v>0.0</v>
@@ -10578,24 +10575,24 @@
         <v>0.0</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B25" t="n">
-        <v>813.0</v>
+        <v>757.0</v>
       </c>
       <c r="C25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D25" t="s">
         <v>268</v>
       </c>
       <c r="E25" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F25" t="s">
         <v>94</v>
@@ -10604,22 +10601,22 @@
         <v>285</v>
       </c>
       <c r="H25" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I25" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="J25" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="K25" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="L25" t="n">
-        <v>317.0</v>
+        <v>480.0</v>
       </c>
       <c r="M25" t="n">
-        <v>3.5</v>
+        <v>5.3</v>
       </c>
       <c r="N25" t="n">
         <v>0.0</v>
@@ -10646,60 +10643,60 @@
         <v>0.0</v>
       </c>
       <c r="V25" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="W25" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="X25" t="n">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="Z25" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="AA25" t="n">
-        <v>7.0</v>
+        <v>50.0</v>
       </c>
       <c r="AB25" t="n">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="AC25" t="n">
         <v>0.0</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.28</v>
+        <v>0.19</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.28</v>
+        <v>0.19</v>
       </c>
       <c r="AF25" t="n">
         <v>0.0</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.28</v>
+        <v>0.19</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B26" t="n">
-        <v>819.0</v>
+        <v>818.0</v>
       </c>
       <c r="C26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D26" t="s">
         <v>268</v>
       </c>
       <c r="E26" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F26" t="s">
         <v>94</v>
@@ -10708,22 +10705,22 @@
         <v>285</v>
       </c>
       <c r="H26" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I26" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="J26" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="K26" t="n">
         <v>3.0</v>
       </c>
       <c r="L26" t="n">
-        <v>277.0</v>
+        <v>362.0</v>
       </c>
       <c r="M26" t="n">
-        <v>3.1</v>
+        <v>4.0</v>
       </c>
       <c r="N26" t="n">
         <v>0.0</v>
@@ -10750,60 +10747,60 @@
         <v>0.0</v>
       </c>
       <c r="V26" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="W26" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="X26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y26" t="n">
         <v>0.6</v>
       </c>
-      <c r="Y26" t="n">
-        <v>0.9</v>
-      </c>
       <c r="Z26" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="AA26" t="n">
         <v>9.0</v>
       </c>
       <c r="AB26" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="AC26" t="n">
         <v>0.0</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
       <c r="AF26" t="n">
         <v>0.0</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B27" t="n">
-        <v>918.0</v>
+        <v>824.0</v>
       </c>
       <c r="C27" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="D27" t="s">
         <v>268</v>
       </c>
       <c r="E27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F27" t="s">
         <v>94</v>
@@ -10812,31 +10809,31 @@
         <v>285</v>
       </c>
       <c r="H27" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="I27" t="s">
-        <v>343</v>
+        <v>213</v>
       </c>
       <c r="J27" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="K27" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L27" t="n">
-        <v>259.0</v>
+        <v>277.0</v>
       </c>
       <c r="M27" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="N27" t="n">
         <v>0.0</v>
       </c>
       <c r="O27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q27" t="n">
         <v>0.0</v>
@@ -10845,69 +10842,69 @@
         <v>0.0</v>
       </c>
       <c r="S27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="U27" t="n">
         <v>0.0</v>
       </c>
       <c r="V27" t="n">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="W27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Y27" t="n">
         <v>0.9</v>
       </c>
-      <c r="X27" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>1.1</v>
-      </c>
       <c r="Z27" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="AA27" t="n">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="AB27" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="AC27" t="n">
         <v>0.0</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.0</v>
+        <v>0.32</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.0</v>
+        <v>0.32</v>
       </c>
       <c r="AF27" t="n">
         <v>0.0</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.0</v>
+        <v>0.32</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.6</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B28" t="n">
-        <v>1174.0</v>
+        <v>923.0</v>
       </c>
       <c r="C28" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D28" t="s">
         <v>268</v>
       </c>
       <c r="E28" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F28" t="s">
         <v>94</v>
@@ -10916,22 +10913,22 @@
         <v>285</v>
       </c>
       <c r="H28" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="I28" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="J28" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="K28" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="L28" t="n">
-        <v>318.0</v>
+        <v>259.0</v>
       </c>
       <c r="M28" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="N28" t="n">
         <v>0.0</v>
@@ -10949,35 +10946,35 @@
         <v>0.0</v>
       </c>
       <c r="S28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="U28" t="n">
         <v>0.0</v>
       </c>
       <c r="V28" t="n">
-        <v>0.0</v>
+        <v>1.7</v>
       </c>
       <c r="W28" t="n">
-        <v>0.0</v>
+        <v>0.9</v>
       </c>
       <c r="X28" t="n">
         <v>0.1</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="Z28" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AB28" t="n">
         <v>5.0</v>
       </c>
-      <c r="AA28" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>8.0</v>
-      </c>
       <c r="AC28" t="n">
         <v>0.0</v>
       </c>
@@ -10994,18 +10991,18 @@
         <v>0.0</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="B29" t="n">
-        <v>1291.0</v>
+        <v>1180.0</v>
       </c>
       <c r="C29" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="D29" t="s">
         <v>268</v>
@@ -11020,102 +11017,102 @@
         <v>285</v>
       </c>
       <c r="H29" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="I29" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="J29" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>318.0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AB29" t="n">
         <v>8.0</v>
       </c>
-      <c r="K29" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>593.0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>19.0</v>
-      </c>
       <c r="AC29" t="n">
         <v>0.0</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.46</v>
+        <v>0.0</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.46</v>
+        <v>0.0</v>
       </c>
       <c r="AF29" t="n">
         <v>0.0</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.46</v>
+        <v>0.0</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.01</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B30" t="n">
-        <v>1321.0</v>
+        <v>1299.0</v>
       </c>
       <c r="C30" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D30" t="s">
         <v>268</v>
       </c>
       <c r="E30" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F30" t="s">
         <v>94</v>
@@ -11124,31 +11121,31 @@
         <v>285</v>
       </c>
       <c r="H30" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I30" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J30" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="L30" t="n">
-        <v>42.0</v>
+        <v>683.0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.5</v>
+        <v>7.6</v>
       </c>
       <c r="N30" t="n">
         <v>0.0</v>
       </c>
       <c r="O30" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="P30" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q30" t="n">
         <v>0.0</v>
@@ -11172,37 +11169,37 @@
         <v>0.0</v>
       </c>
       <c r="X30" t="n">
-        <v>0.0</v>
+        <v>1.3</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.0</v>
+        <v>1.3</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.0</v>
+        <v>44.0</v>
       </c>
       <c r="AB30" t="n">
-        <v>2.0</v>
+        <v>31.0</v>
       </c>
       <c r="AC30" t="n">
         <v>0.0</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="AF30" t="n">
         <v>0.0</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="31">
@@ -11210,7 +11207,7 @@
         <v>179</v>
       </c>
       <c r="B31" t="n">
-        <v>1539.0</v>
+        <v>1329.0</v>
       </c>
       <c r="C31" t="s">
         <v>232</v>
@@ -11219,7 +11216,7 @@
         <v>268</v>
       </c>
       <c r="E31" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F31" t="s">
         <v>94</v>
@@ -11231,65 +11228,65 @@
         <v>303</v>
       </c>
       <c r="I31" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J31" t="n">
         <v>3.0</v>
       </c>
       <c r="K31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB31" t="n">
         <v>3.0</v>
       </c>
-      <c r="L31" t="n">
-        <v>270.0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>0.0</v>
-      </c>
       <c r="AC31" t="n">
         <v>0.0</v>
       </c>
@@ -11306,24 +11303,24 @@
         <v>0.0</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.08</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="B32" t="n">
-        <v>1611.0</v>
+        <v>1549.0</v>
       </c>
       <c r="C32" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="D32" t="s">
         <v>268</v>
       </c>
       <c r="E32" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F32" t="s">
         <v>94</v>
@@ -11332,22 +11329,22 @@
         <v>285</v>
       </c>
       <c r="H32" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="I32" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J32" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="K32" t="n">
         <v>3.0</v>
       </c>
       <c r="L32" t="n">
-        <v>321.0</v>
+        <v>270.0</v>
       </c>
       <c r="M32" t="n">
-        <v>3.6</v>
+        <v>3.0</v>
       </c>
       <c r="N32" t="n">
         <v>0.0</v>
@@ -11368,28 +11365,28 @@
         <v>0.0</v>
       </c>
       <c r="T32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U32" t="n">
         <v>0.0</v>
       </c>
       <c r="V32" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="W32" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="X32" t="n">
         <v>0.0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="Z32" t="n">
         <v>0.0</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="AB32" t="n">
         <v>0.0</v>
@@ -11410,7 +11407,7 @@
         <v>0.0</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="33">
@@ -11418,7 +11415,7 @@
         <v>202</v>
       </c>
       <c r="B33" t="n">
-        <v>1915.0</v>
+        <v>1622.0</v>
       </c>
       <c r="C33" t="s">
         <v>255</v>
@@ -11427,7 +11424,7 @@
         <v>268</v>
       </c>
       <c r="E33" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F33" t="s">
         <v>94</v>
@@ -11439,19 +11436,19 @@
         <v>326</v>
       </c>
       <c r="I33" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J33" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="L33" t="n">
-        <v>18.0</v>
+        <v>321.0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.2</v>
+        <v>3.6</v>
       </c>
       <c r="N33" t="n">
         <v>0.0</v>
@@ -11493,10 +11490,10 @@
         <v>0.0</v>
       </c>
       <c r="AA33" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB33" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC33" t="n">
         <v>0.0</v>
@@ -11514,7 +11511,7 @@
         <v>0.0</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.09</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34">
@@ -11522,7 +11519,7 @@
         <v>203</v>
       </c>
       <c r="B34" t="n">
-        <v>2158.0</v>
+        <v>1927.0</v>
       </c>
       <c r="C34" t="s">
         <v>256</v>
@@ -11531,7 +11528,7 @@
         <v>268</v>
       </c>
       <c r="E34" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F34" t="s">
         <v>94</v>
@@ -11543,19 +11540,19 @@
         <v>327</v>
       </c>
       <c r="I34" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="J34" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="K34" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="L34" t="n">
-        <v>312.0</v>
+        <v>97.0</v>
       </c>
       <c r="M34" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="N34" t="n">
         <v>0.0</v>
@@ -11582,25 +11579,25 @@
         <v>0.0</v>
       </c>
       <c r="V34" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="W34" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="X34" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Z34" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA34" t="n">
-        <v>20.0</v>
+        <v>3.0</v>
       </c>
       <c r="AB34" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="AC34" t="n">
         <v>0.0</v>
@@ -11618,48 +11615,48 @@
         <v>0.0</v>
       </c>
       <c r="AH34" t="n">
-        <v>0.01</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B35" t="n">
-        <v>39.0</v>
+        <v>2173.0</v>
       </c>
       <c r="C35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D35" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E35" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F35" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G35" t="s">
         <v>285</v>
       </c>
       <c r="H35" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J35" t="n">
         <v>8.0</v>
       </c>
       <c r="K35" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="L35" t="n">
-        <v>694.0</v>
+        <v>357.0</v>
       </c>
       <c r="M35" t="n">
-        <v>7.7</v>
+        <v>4.0</v>
       </c>
       <c r="N35" t="n">
         <v>0.0</v>
@@ -11686,25 +11683,25 @@
         <v>0.0</v>
       </c>
       <c r="V35" t="n">
-        <v>1.9</v>
+        <v>0.0</v>
       </c>
       <c r="W35" t="n">
-        <v>1.9</v>
+        <v>0.0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="Z35" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="AA35" t="n">
-        <v>27.0</v>
+        <v>24.0</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="AC35" t="n">
         <v>0.0</v>
@@ -11722,21 +11719,21 @@
         <v>0.0</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.24</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="B36" t="n">
-        <v>112.0</v>
+        <v>39.0</v>
       </c>
       <c r="C36" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="D36" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E36" t="s">
         <v>278</v>
@@ -11748,22 +11745,22 @@
         <v>285</v>
       </c>
       <c r="H36" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="I36" t="s">
-        <v>341</v>
+        <v>213</v>
       </c>
       <c r="J36" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="K36" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="L36" t="n">
-        <v>694.0</v>
+        <v>784.0</v>
       </c>
       <c r="M36" t="n">
-        <v>7.7</v>
+        <v>8.7</v>
       </c>
       <c r="N36" t="n">
         <v>0.0</v>
@@ -11784,31 +11781,31 @@
         <v>0.0</v>
       </c>
       <c r="T36" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="U36" t="n">
         <v>0.0</v>
       </c>
       <c r="V36" t="n">
-        <v>0.2</v>
+        <v>1.9</v>
       </c>
       <c r="W36" t="n">
-        <v>0.2</v>
+        <v>1.9</v>
       </c>
       <c r="X36" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.6</v>
+        <v>2.0</v>
       </c>
       <c r="Z36" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="AA36" t="n">
-        <v>34.0</v>
+        <v>28.0</v>
       </c>
       <c r="AB36" t="n">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC36" t="n">
         <v>0.0</v>
@@ -11826,24 +11823,24 @@
         <v>0.0</v>
       </c>
       <c r="AH36" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="B37" t="n">
-        <v>198.0</v>
+        <v>112.0</v>
       </c>
       <c r="C37" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="D37" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F37" t="s">
         <v>96</v>
@@ -11852,102 +11849,102 @@
         <v>285</v>
       </c>
       <c r="H37" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="I37" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="J37" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="K37" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>754.0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T37" t="n">
         <v>4.0</v>
       </c>
-      <c r="L37" t="n">
-        <v>407.0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>1.0</v>
-      </c>
       <c r="U37" t="n">
         <v>0.0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="W37" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="X37" t="n">
         <v>0.8</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="Z37" t="n">
-        <v>21.0</v>
+        <v>13.0</v>
       </c>
       <c r="AA37" t="n">
-        <v>15.0</v>
+        <v>36.0</v>
       </c>
       <c r="AB37" t="n">
-        <v>56.0</v>
+        <v>19.0</v>
       </c>
       <c r="AC37" t="n">
         <v>0.0</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.22</v>
+        <v>0.0</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.22</v>
+        <v>0.0</v>
       </c>
       <c r="AF37" t="n">
         <v>0.0</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.22</v>
+        <v>0.0</v>
       </c>
       <c r="AH37" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="B38" t="n">
-        <v>215.0</v>
+        <v>199.0</v>
       </c>
       <c r="C38" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="D38" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F38" t="s">
         <v>96</v>
@@ -11956,31 +11953,31 @@
         <v>285</v>
       </c>
       <c r="H38" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="I38" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J38" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="K38" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="L38" t="n">
-        <v>539.0</v>
+        <v>437.0</v>
       </c>
       <c r="M38" t="n">
-        <v>6.0</v>
+        <v>4.9</v>
       </c>
       <c r="N38" t="n">
         <v>0.0</v>
       </c>
       <c r="O38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q38" t="n">
         <v>0.0</v>
@@ -11992,49 +11989,49 @@
         <v>0.0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U38" t="n">
         <v>0.0</v>
       </c>
       <c r="V38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X38" t="n">
         <v>0.8</v>
       </c>
-      <c r="W38" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0.4</v>
-      </c>
       <c r="Y38" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="Z38" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="AA38" t="n">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
       <c r="AB38" t="n">
-        <v>59.0</v>
+        <v>57.0</v>
       </c>
       <c r="AC38" t="n">
         <v>0.0</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.0</v>
+        <v>0.21</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.0</v>
+        <v>0.21</v>
       </c>
       <c r="AF38" t="n">
         <v>0.0</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.0</v>
+        <v>0.21</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="39">
@@ -12042,7 +12039,7 @@
         <v>206</v>
       </c>
       <c r="B39" t="n">
-        <v>661.0</v>
+        <v>665.0</v>
       </c>
       <c r="C39" t="s">
         <v>259</v>
@@ -12063,19 +12060,19 @@
         <v>330</v>
       </c>
       <c r="I39" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J39" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="K39" t="n">
         <v>3.0</v>
       </c>
       <c r="L39" t="n">
-        <v>245.0</v>
+        <v>275.0</v>
       </c>
       <c r="M39" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="N39" t="n">
         <v>0.0</v>
@@ -12117,7 +12114,7 @@
         <v>4.0</v>
       </c>
       <c r="AA39" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="AB39" t="n">
         <v>1.0</v>
@@ -12138,18 +12135,18 @@
         <v>0.0</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B40" t="n">
-        <v>812.0</v>
+        <v>817.0</v>
       </c>
       <c r="C40" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D40" t="s">
         <v>268</v>
@@ -12164,22 +12161,22 @@
         <v>285</v>
       </c>
       <c r="H40" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I40" t="s">
         <v>339</v>
       </c>
       <c r="J40" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="K40" t="n">
         <v>11.0</v>
       </c>
       <c r="L40" t="n">
-        <v>957.0</v>
+        <v>987.0</v>
       </c>
       <c r="M40" t="n">
-        <v>10.6</v>
+        <v>11.0</v>
       </c>
       <c r="N40" t="n">
         <v>0.0</v>
@@ -12230,16 +12227,16 @@
         <v>0.0</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="AF40" t="n">
         <v>0.0</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="AH40" t="n">
         <v>0.02</v>
@@ -12247,13 +12244,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B41" t="n">
-        <v>816.0</v>
+        <v>821.0</v>
       </c>
       <c r="C41" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D41" t="s">
         <v>268</v>
@@ -12268,7 +12265,7 @@
         <v>285</v>
       </c>
       <c r="H41" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I41" t="s">
         <v>340</v>
@@ -12354,7 +12351,7 @@
         <v>207</v>
       </c>
       <c r="B42" t="n">
-        <v>1213.0</v>
+        <v>1220.0</v>
       </c>
       <c r="C42" t="s">
         <v>260</v>
@@ -12378,13 +12375,13 @@
         <v>341</v>
       </c>
       <c r="J42" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="K42" t="n">
         <v>7.0</v>
       </c>
       <c r="L42" t="n">
-        <v>635.0</v>
+        <v>642.0</v>
       </c>
       <c r="M42" t="n">
         <v>7.1</v>
@@ -12458,7 +12455,7 @@
         <v>208</v>
       </c>
       <c r="B43" t="n">
-        <v>1256.0</v>
+        <v>1264.0</v>
       </c>
       <c r="C43" t="s">
         <v>261</v>
@@ -12562,7 +12559,7 @@
         <v>209</v>
       </c>
       <c r="B44" t="n">
-        <v>1297.0</v>
+        <v>1305.0</v>
       </c>
       <c r="C44" t="s">
         <v>262</v>
@@ -12583,7 +12580,7 @@
         <v>333</v>
       </c>
       <c r="I44" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J44" t="n">
         <v>3.0</v>
@@ -12663,13 +12660,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B45" t="n">
-        <v>1308.0</v>
+        <v>1316.0</v>
       </c>
       <c r="C45" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D45" t="s">
         <v>268</v>
@@ -12684,10 +12681,10 @@
         <v>285</v>
       </c>
       <c r="H45" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="I45" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J45" t="n">
         <v>2.0</v>
@@ -12767,13 +12764,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B46" t="n">
-        <v>1460.0</v>
+        <v>1470.0</v>
       </c>
       <c r="C46" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D46" t="s">
         <v>268</v>
@@ -12788,22 +12785,22 @@
         <v>285</v>
       </c>
       <c r="H46" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="I46" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J46" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="K46" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L46" t="n">
-        <v>129.0</v>
+        <v>212.0</v>
       </c>
       <c r="M46" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="N46" t="n">
         <v>0.0</v>
@@ -12842,13 +12839,13 @@
         <v>0.1</v>
       </c>
       <c r="Z46" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="AA46" t="n">
         <v>11.0</v>
       </c>
       <c r="AB46" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="AC46" t="n">
         <v>0.0</v>
@@ -12871,13 +12868,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B47" t="n">
-        <v>1555.0</v>
+        <v>1566.0</v>
       </c>
       <c r="C47" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D47" t="s">
         <v>268</v>
@@ -12892,10 +12889,10 @@
         <v>285</v>
       </c>
       <c r="H47" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="I47" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="J47" t="n">
         <v>2.0</v>
@@ -12978,7 +12975,7 @@
         <v>210</v>
       </c>
       <c r="B48" t="n">
-        <v>1565.0</v>
+        <v>1576.0</v>
       </c>
       <c r="C48" t="s">
         <v>263</v>
@@ -13079,13 +13076,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B49" t="n">
-        <v>1609.0</v>
+        <v>1620.0</v>
       </c>
       <c r="C49" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D49" t="s">
         <v>268</v>
@@ -13100,7 +13097,7 @@
         <v>285</v>
       </c>
       <c r="H49" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I49" t="s">
         <v>340</v>
@@ -13186,7 +13183,7 @@
         <v>211</v>
       </c>
       <c r="B50" t="n">
-        <v>1749.0</v>
+        <v>1760.0</v>
       </c>
       <c r="C50" t="s">
         <v>264</v>
@@ -13207,19 +13204,19 @@
         <v>335</v>
       </c>
       <c r="I50" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="J50" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="K50" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="L50" t="e">
         <v>#N/A</v>
       </c>
       <c r="M50" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="N50" t="n">
         <v>0.0</v>
@@ -13287,13 +13284,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B51" t="n">
-        <v>1827.0</v>
+        <v>1839.0</v>
       </c>
       <c r="C51" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D51" t="s">
         <v>272</v>
@@ -13308,10 +13305,10 @@
         <v>285</v>
       </c>
       <c r="H51" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="I51" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J51" t="n">
         <v>6.0</v>
@@ -13394,7 +13391,7 @@
         <v>214</v>
       </c>
       <c r="B52" t="n">
-        <v>2096.0</v>
+        <v>2111.0</v>
       </c>
       <c r="C52" t="s">
         <v>267</v>
@@ -13415,7 +13412,7 @@
         <v>338</v>
       </c>
       <c r="I52" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J52" t="n">
         <v>4.0</v>
@@ -13495,13 +13492,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B53" t="n">
-        <v>2111.0</v>
+        <v>2126.0</v>
       </c>
       <c r="C53" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D53" t="s">
         <v>268</v>
@@ -13516,7 +13513,7 @@
         <v>285</v>
       </c>
       <c r="H53" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I53" t="s">
         <v>341</v>
@@ -13599,13 +13596,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B54" t="n">
-        <v>2275.0</v>
+        <v>2290.0</v>
       </c>
       <c r="C54" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D54" t="s">
         <v>268</v>
@@ -13620,22 +13617,22 @@
         <v>285</v>
       </c>
       <c r="H54" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="I54" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J54" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K54" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="L54" t="n">
-        <v>845.0</v>
+        <v>935.0</v>
       </c>
       <c r="M54" t="n">
-        <v>9.4</v>
+        <v>10.4</v>
       </c>
       <c r="N54" t="n">
         <v>0.0</v>
@@ -13656,16 +13653,16 @@
         <v>0.0</v>
       </c>
       <c r="T54" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="U54" t="n">
         <v>0.0</v>
       </c>
       <c r="V54" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="W54" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="X54" t="n">
         <v>0.3</v>
@@ -13677,10 +13674,10 @@
         <v>8.0</v>
       </c>
       <c r="AA54" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="AB54" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AC54" t="n">
         <v>0.0</v>
@@ -13698,7 +13695,7 @@
         <v>0.0</v>
       </c>
       <c r="AH54" t="n">
-        <v>0.0</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
